--- a/src/main/java/com/ae/qa/testdata/TestData_6.0.xlsx
+++ b/src/main/java/com/ae/qa/testdata/TestData_6.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="14055" windowHeight="5190" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="14055" windowHeight="5190"/>
   </bookViews>
   <sheets>
     <sheet name="SysadminDetails" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4958" uniqueCount="1561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5130" uniqueCount="1592">
   <si>
     <t>Description</t>
   </si>
@@ -3592,9 +3592,6 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>License Admin</t>
-  </si>
-  <si>
     <t>sys</t>
   </si>
   <si>
@@ -3613,9 +3610,6 @@
     <t>an</t>
   </si>
   <si>
-    <t>madhu</t>
-  </si>
-  <si>
     <t>nt</t>
   </si>
   <si>
@@ -4709,6 +4703,105 @@
   </si>
   <si>
     <t>validateLastUpdatedCreatedInBetweenTenantuserPageTATest</t>
+  </si>
+  <si>
+    <t>LicenseAdmin</t>
+  </si>
+  <si>
+    <t>validateHomePageForConsumptionTabTest</t>
+  </si>
+  <si>
+    <t>validateCreateAllotmentBasedTenantTest</t>
+  </si>
+  <si>
+    <t>UBL01</t>
+  </si>
+  <si>
+    <t>Usage Based Licensing</t>
+  </si>
+  <si>
+    <t>Consumption Based</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>ContactPerson</t>
+  </si>
+  <si>
+    <t>ContactNumber</t>
+  </si>
+  <si>
+    <t>Kalyani</t>
+  </si>
+  <si>
+    <t>Rohil</t>
+  </si>
+  <si>
+    <t>UBL01@gmail.com</t>
+  </si>
+  <si>
+    <t>validateCreatingTenantLicenseAdminTest</t>
+  </si>
+  <si>
+    <t>SYSADMIN</t>
+  </si>
+  <si>
+    <t>TenantLicenseAdmin@gmail.com</t>
+  </si>
+  <si>
+    <t>TLAdmin01</t>
+  </si>
+  <si>
+    <t>Tenant License Admin</t>
+  </si>
+  <si>
+    <t>validateEditTenantLicenseAdminTest</t>
+  </si>
+  <si>
+    <t>TLA01@gmail.com</t>
+  </si>
+  <si>
+    <t>validateAllocateConsumptionBasedTest</t>
+  </si>
+  <si>
+    <t>TestCase_099</t>
+  </si>
+  <si>
+    <t>StartYear</t>
+  </si>
+  <si>
+    <t>StartMonth</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Validity</t>
+  </si>
+  <si>
+    <t>ProcessStudioCount</t>
+  </si>
+  <si>
+    <t>PremiumStepsCount</t>
+  </si>
+  <si>
+    <t>BotTimeMinutes</t>
+  </si>
+  <si>
+    <t>validateAmendLicenseTest</t>
+  </si>
+  <si>
+    <t>AmendLicense</t>
+  </si>
+  <si>
+    <t>alu@abc.com</t>
+  </si>
+  <si>
+    <t>AmendLU1</t>
   </si>
 </sst>
 </file>
@@ -4910,7 +5003,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4963,7 +5056,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -5063,10 +5156,11 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5381,7 +5475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5389,10 +5483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BT172"/>
+  <dimension ref="A1:CE186"/>
   <sheetViews>
-    <sheetView topLeftCell="AV76" workbookViewId="0">
-      <selection activeCell="BA78" sqref="BA78"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5452,9 +5546,11 @@
     <col min="67" max="67" width="18.5703125" customWidth="1" collapsed="1"/>
     <col min="69" max="69" width="18.85546875" customWidth="1" collapsed="1"/>
     <col min="70" max="70" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="11" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" ht="78.95" customHeight="1">
+    <row r="1" spans="1:83" ht="78.95" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -5671,8 +5767,41 @@
       <c r="BT1" s="36" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="2" spans="1:72" s="31" customFormat="1" ht="23.1" customHeight="1">
+      <c r="BU1" s="73" t="s">
+        <v>1212</v>
+      </c>
+      <c r="BV1" s="74" t="s">
+        <v>1565</v>
+      </c>
+      <c r="BW1" s="74" t="s">
+        <v>1566</v>
+      </c>
+      <c r="BX1" s="74" t="s">
+        <v>1567</v>
+      </c>
+      <c r="BY1" s="75" t="s">
+        <v>1580</v>
+      </c>
+      <c r="BZ1" s="75" t="s">
+        <v>1581</v>
+      </c>
+      <c r="CA1" s="75" t="s">
+        <v>1582</v>
+      </c>
+      <c r="CB1" s="75" t="s">
+        <v>1584</v>
+      </c>
+      <c r="CC1" s="75" t="s">
+        <v>1585</v>
+      </c>
+      <c r="CD1" s="75" t="s">
+        <v>1586</v>
+      </c>
+      <c r="CE1" s="75" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="2" spans="1:83" s="31" customFormat="1" ht="23.1" customHeight="1">
       <c r="A2" s="38" t="s">
         <v>335</v>
       </c>
@@ -5752,7 +5881,7 @@
       <c r="BS2"/>
       <c r="BT2"/>
     </row>
-    <row r="3" spans="1:72" s="31" customFormat="1" ht="18.95" customHeight="1">
+    <row r="3" spans="1:83" s="31" customFormat="1" ht="18.95" customHeight="1">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
@@ -5826,7 +5955,7 @@
       <c r="BS3"/>
       <c r="BT3"/>
     </row>
-    <row r="4" spans="1:72">
+    <row r="4" spans="1:83">
       <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
@@ -5849,7 +5978,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="1:72">
+    <row r="6" spans="1:83">
       <c r="A6" s="36" t="s">
         <v>21</v>
       </c>
@@ -5872,7 +6001,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="8" spans="1:72">
+    <row r="8" spans="1:83">
       <c r="A8" s="36" t="s">
         <v>64</v>
       </c>
@@ -5886,7 +6015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:72">
+    <row r="10" spans="1:83">
       <c r="A10" s="36" t="s">
         <v>14</v>
       </c>
@@ -5918,8 +6047,8 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="11" spans="1:72" ht="15.6" customHeight="1"/>
-    <row r="12" spans="1:72" ht="24.6" customHeight="1">
+    <row r="11" spans="1:83" ht="15.6" customHeight="1"/>
+    <row r="12" spans="1:83" ht="24.6" customHeight="1">
       <c r="A12" s="36" t="s">
         <v>26</v>
       </c>
@@ -5957,8 +6086,8 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="13" spans="1:72" ht="24.6" customHeight="1"/>
-    <row r="14" spans="1:72">
+    <row r="13" spans="1:83" ht="24.6" customHeight="1"/>
+    <row r="14" spans="1:83">
       <c r="A14" s="36" t="s">
         <v>22</v>
       </c>
@@ -5987,7 +6116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:72">
+    <row r="16" spans="1:83">
       <c r="A16" s="36" t="s">
         <v>333</v>
       </c>
@@ -7692,6 +7821,206 @@
         <v>1074</v>
       </c>
     </row>
+    <row r="174" spans="1:72">
+      <c r="A174" s="25" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B174" t="s">
+        <v>619</v>
+      </c>
+      <c r="D174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:72">
+      <c r="A176" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="B176" t="s">
+        <v>619</v>
+      </c>
+      <c r="D176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:83">
+      <c r="A178" s="25" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D178" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F178" t="s">
+        <v>1563</v>
+      </c>
+      <c r="G178" t="s">
+        <v>1562</v>
+      </c>
+      <c r="J178" t="s">
+        <v>1570</v>
+      </c>
+      <c r="BU178" t="s">
+        <v>1564</v>
+      </c>
+      <c r="BV178" t="s">
+        <v>1568</v>
+      </c>
+      <c r="BW178" t="s">
+        <v>1569</v>
+      </c>
+      <c r="BX178" s="69">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="180" spans="1:83">
+      <c r="A180" s="25" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B180" t="s">
+        <v>313</v>
+      </c>
+      <c r="D180" t="s">
+        <v>9</v>
+      </c>
+      <c r="G180" t="s">
+        <v>1572</v>
+      </c>
+      <c r="H180" t="s">
+        <v>69</v>
+      </c>
+      <c r="I180" t="s">
+        <v>1559</v>
+      </c>
+      <c r="J180" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K180" t="s">
+        <v>1574</v>
+      </c>
+      <c r="L180" t="s">
+        <v>20</v>
+      </c>
+      <c r="M180" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="182" spans="1:83">
+      <c r="A182" s="25" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B182" t="s">
+        <v>313</v>
+      </c>
+      <c r="D182" t="s">
+        <v>9</v>
+      </c>
+      <c r="K182" t="s">
+        <v>1574</v>
+      </c>
+      <c r="L182" t="s">
+        <v>20</v>
+      </c>
+      <c r="M182" t="s">
+        <v>20</v>
+      </c>
+      <c r="N182" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="184" spans="1:83">
+      <c r="A184" s="44" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B184" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D184" t="s">
+        <v>9</v>
+      </c>
+      <c r="G184" t="s">
+        <v>1562</v>
+      </c>
+      <c r="BY184">
+        <v>2023</v>
+      </c>
+      <c r="BZ184" t="s">
+        <v>1583</v>
+      </c>
+      <c r="CA184">
+        <v>20</v>
+      </c>
+      <c r="CB184">
+        <v>1</v>
+      </c>
+      <c r="CC184">
+        <v>1</v>
+      </c>
+      <c r="CD184">
+        <v>1</v>
+      </c>
+      <c r="CE184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:83">
+      <c r="A186" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B186" t="s">
+        <v>632</v>
+      </c>
+      <c r="D186" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G186" t="s">
+        <v>1562</v>
+      </c>
+      <c r="H186" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I186" t="s">
+        <v>349</v>
+      </c>
+      <c r="J186" t="s">
+        <v>1590</v>
+      </c>
+      <c r="K186" t="s">
+        <v>1591</v>
+      </c>
+      <c r="L186" t="s">
+        <v>20</v>
+      </c>
+      <c r="M186" t="s">
+        <v>20</v>
+      </c>
+      <c r="O186" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>71</v>
+      </c>
+      <c r="CC186">
+        <v>1</v>
+      </c>
+      <c r="CD186">
+        <v>2</v>
+      </c>
+      <c r="CE186">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L10" r:id="rId1"/>
@@ -7729,9 +8058,10 @@
     <hyperlink ref="AF110" r:id="rId33"/>
     <hyperlink ref="AG110" r:id="rId34"/>
     <hyperlink ref="V112" r:id="rId35"/>
+    <hyperlink ref="O186" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 
@@ -19019,8 +19349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E292" sqref="E292"/>
+    <sheetView topLeftCell="A310" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N286" sqref="N286:R294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19066,7 +19396,7 @@
         <v>1150</v>
       </c>
       <c r="K1" s="66" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="L1" s="68" t="s">
         <v>520</v>
@@ -19092,11 +19422,14 @@
     </row>
     <row r="2" spans="1:18" ht="30">
       <c r="A2" s="40" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>1151</v>
       </c>
+      <c r="C2" t="s">
+        <v>638</v>
+      </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
@@ -19115,11 +19448,14 @@
     </row>
     <row r="4" spans="1:18" ht="30">
       <c r="A4" s="40" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>1151</v>
       </c>
+      <c r="C4" t="s">
+        <v>638</v>
+      </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
@@ -19138,11 +19474,14 @@
     </row>
     <row r="6" spans="1:18" ht="30">
       <c r="A6" s="40" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>1151</v>
       </c>
+      <c r="C6" t="s">
+        <v>638</v>
+      </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -19170,11 +19509,14 @@
     </row>
     <row r="8" spans="1:18" ht="30">
       <c r="A8" s="40" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>1151</v>
       </c>
+      <c r="C8" t="s">
+        <v>638</v>
+      </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
@@ -19193,11 +19535,14 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="40" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>1151</v>
       </c>
+      <c r="C10" t="s">
+        <v>638</v>
+      </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
@@ -19216,11 +19561,14 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="40" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>1151</v>
       </c>
+      <c r="C12" t="s">
+        <v>638</v>
+      </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
@@ -19239,11 +19587,14 @@
     </row>
     <row r="14" spans="1:18" ht="30">
       <c r="A14" s="40" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>1151</v>
       </c>
+      <c r="C14" t="s">
+        <v>638</v>
+      </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
@@ -19268,11 +19619,14 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="40" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>1151</v>
       </c>
+      <c r="C16" t="s">
+        <v>638</v>
+      </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
@@ -19300,11 +19654,14 @@
     </row>
     <row r="18" spans="1:18" ht="30">
       <c r="A18" s="40" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B18" s="32" t="s">
         <v>1151</v>
       </c>
+      <c r="C18" t="s">
+        <v>638</v>
+      </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
@@ -19332,11 +19689,14 @@
     </row>
     <row r="20" spans="1:18" ht="30">
       <c r="A20" s="40" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B20" s="32" t="s">
         <v>1151</v>
       </c>
+      <c r="C20" t="s">
+        <v>638</v>
+      </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
@@ -19355,11 +19715,14 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="65" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="B22" s="32" t="s">
         <v>1151</v>
       </c>
+      <c r="C22" t="s">
+        <v>638</v>
+      </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
@@ -19376,16 +19739,19 @@
         <v>1077</v>
       </c>
       <c r="O22">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="65" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="B24" s="32" t="s">
         <v>1151</v>
       </c>
+      <c r="C24" t="s">
+        <v>638</v>
+      </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
@@ -19402,16 +19768,19 @@
         <v>1077</v>
       </c>
       <c r="O24">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="44" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>1151</v>
       </c>
+      <c r="C26" t="s">
+        <v>638</v>
+      </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
@@ -19428,16 +19797,19 @@
         <v>1077</v>
       </c>
       <c r="O26">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="65" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B28" s="32" t="s">
         <v>1151</v>
       </c>
+      <c r="C28" t="s">
+        <v>638</v>
+      </c>
       <c r="D28" t="s">
         <v>9</v>
       </c>
@@ -19468,11 +19840,14 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="65" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B30" s="32" t="s">
         <v>1151</v>
       </c>
+      <c r="C30" t="s">
+        <v>638</v>
+      </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
@@ -19503,10 +19878,13 @@
     </row>
     <row r="32" spans="1:18" ht="30">
       <c r="A32" s="40" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B32" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>638</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -19526,10 +19904,13 @@
     </row>
     <row r="34" spans="1:12" ht="30">
       <c r="A34" s="40" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="B34" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>638</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -19549,10 +19930,13 @@
     </row>
     <row r="36" spans="1:12" ht="30">
       <c r="A36" s="40" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B36" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>638</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -19572,10 +19956,13 @@
     </row>
     <row r="38" spans="1:12" ht="30">
       <c r="A38" s="40" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B38" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C38" t="s">
+        <v>638</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -19595,10 +19982,13 @@
     </row>
     <row r="40" spans="1:12" ht="30">
       <c r="A40" s="40" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B40" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C40" t="s">
+        <v>638</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
@@ -19618,10 +20008,13 @@
     </row>
     <row r="42" spans="1:12" ht="30">
       <c r="A42" s="40" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="B42" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C42" t="s">
+        <v>638</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -19641,10 +20034,13 @@
     </row>
     <row r="44" spans="1:12" ht="30">
       <c r="A44" s="40" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B44" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C44" t="s">
+        <v>638</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -19664,10 +20060,13 @@
     </row>
     <row r="46" spans="1:12" ht="30">
       <c r="A46" s="40" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B46" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C46" t="s">
+        <v>638</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -19687,10 +20086,13 @@
     </row>
     <row r="48" spans="1:12" ht="30">
       <c r="A48" s="40" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B48" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C48" t="s">
+        <v>638</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -19710,10 +20112,13 @@
     </row>
     <row r="50" spans="1:15" ht="30">
       <c r="A50" s="40" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B50" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>638</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
@@ -19733,10 +20138,13 @@
     </row>
     <row r="52" spans="1:15" ht="30">
       <c r="A52" s="40" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="B52" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>638</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -19748,7 +20156,7 @@
         <v>900</v>
       </c>
       <c r="J52" t="s">
-        <v>1188</v>
+        <v>1559</v>
       </c>
       <c r="L52">
         <v>50</v>
@@ -19756,10 +20164,13 @@
     </row>
     <row r="54" spans="1:15" ht="30">
       <c r="A54" s="40" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B54" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>638</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
@@ -19771,7 +20182,7 @@
         <v>1153</v>
       </c>
       <c r="J54" t="s">
-        <v>1188</v>
+        <v>1559</v>
       </c>
       <c r="L54">
         <v>50</v>
@@ -19779,10 +20190,13 @@
     </row>
     <row r="56" spans="1:15" ht="30">
       <c r="A56" s="40" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="B56" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>638</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
@@ -19802,10 +20216,13 @@
     </row>
     <row r="58" spans="1:15" ht="30">
       <c r="A58" s="40" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B58" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C58" t="s">
+        <v>638</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
@@ -19817,7 +20234,7 @@
         <v>1158</v>
       </c>
       <c r="J58" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="L58">
         <v>50</v>
@@ -19825,10 +20242,13 @@
     </row>
     <row r="60" spans="1:15" ht="30">
       <c r="A60" s="40" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="B60" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C60" t="s">
+        <v>638</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
@@ -19840,7 +20260,7 @@
         <v>1159</v>
       </c>
       <c r="J60" t="s">
-        <v>829</v>
+        <v>1185</v>
       </c>
       <c r="L60">
         <v>50</v>
@@ -19848,10 +20268,13 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="65" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="B62" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C62" t="s">
+        <v>638</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
@@ -19869,15 +20292,18 @@
         <v>1077</v>
       </c>
       <c r="O62">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="65" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="B64" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>638</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -19895,15 +20321,18 @@
         <v>1077</v>
       </c>
       <c r="O64">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="65" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B66" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C66" t="s">
+        <v>638</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
@@ -19926,10 +20355,13 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="65" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="B68" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>638</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
@@ -19946,10 +20378,10 @@
       <c r="N68" t="s">
         <v>1077</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="69">
         <v>1</v>
       </c>
-      <c r="P68">
+      <c r="P68" s="69">
         <v>2023</v>
       </c>
       <c r="Q68" t="s">
@@ -19961,10 +20393,13 @@
     </row>
     <row r="70" spans="1:18" ht="30">
       <c r="A70" s="65" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B70" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C70" t="s">
+        <v>638</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
@@ -19981,7 +20416,7 @@
       <c r="N70" t="s">
         <v>1077</v>
       </c>
-      <c r="O70">
+      <c r="O70" s="69">
         <v>1</v>
       </c>
       <c r="P70">
@@ -19990,16 +20425,19 @@
       <c r="Q70" t="s">
         <v>1077</v>
       </c>
-      <c r="R70">
+      <c r="R70" s="69">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="30">
       <c r="A72" s="65" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="B72" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C72" t="s">
+        <v>638</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -20017,15 +20455,18 @@
         <v>1077</v>
       </c>
       <c r="O72">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="30">
       <c r="A74" s="65" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B74" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C74" t="s">
+        <v>638</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
@@ -20043,15 +20484,18 @@
         <v>1077</v>
       </c>
       <c r="O74">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="30">
       <c r="A76" s="65" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="B76" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C76" t="s">
+        <v>638</v>
       </c>
       <c r="D76" t="s">
         <v>9</v>
@@ -20074,10 +20518,13 @@
     </row>
     <row r="78" spans="1:18" ht="30">
       <c r="A78" s="65" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B78" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C78" t="s">
+        <v>638</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
@@ -20094,10 +20541,10 @@
       <c r="N78" t="s">
         <v>1077</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="69">
         <v>1</v>
       </c>
-      <c r="P78">
+      <c r="P78" s="69">
         <v>2023</v>
       </c>
       <c r="Q78" t="s">
@@ -20109,10 +20556,13 @@
     </row>
     <row r="80" spans="1:18" ht="30">
       <c r="A80" s="65" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B80" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C80" t="s">
+        <v>638</v>
       </c>
       <c r="D80" t="s">
         <v>9</v>
@@ -20129,7 +20579,7 @@
       <c r="N80" t="s">
         <v>1077</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="69">
         <v>1</v>
       </c>
       <c r="P80">
@@ -20138,16 +20588,19 @@
       <c r="Q80" t="s">
         <v>1077</v>
       </c>
-      <c r="R80">
+      <c r="R80" s="69">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="30">
       <c r="A82" s="40" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="B82" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C82" t="s">
+        <v>638</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
@@ -20167,10 +20620,13 @@
     </row>
     <row r="84" spans="1:12" ht="30">
       <c r="A84" s="40" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="B84" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C84" t="s">
+        <v>638</v>
       </c>
       <c r="D84" t="s">
         <v>9</v>
@@ -20190,10 +20646,13 @@
     </row>
     <row r="86" spans="1:12" ht="30">
       <c r="A86" s="40" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B86" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C86" t="s">
+        <v>638</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
@@ -20205,7 +20664,7 @@
         <v>1156</v>
       </c>
       <c r="J86" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="L86">
         <v>50</v>
@@ -20213,10 +20672,13 @@
     </row>
     <row r="88" spans="1:12" ht="30">
       <c r="A88" s="40" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="B88" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C88" t="s">
+        <v>638</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
@@ -20228,7 +20690,7 @@
         <v>1158</v>
       </c>
       <c r="J88" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="L88">
         <v>50</v>
@@ -20236,10 +20698,13 @@
     </row>
     <row r="90" spans="1:12" ht="30">
       <c r="A90" s="40" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B90" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C90" t="s">
+        <v>638</v>
       </c>
       <c r="D90" t="s">
         <v>9</v>
@@ -20251,7 +20716,7 @@
         <v>1159</v>
       </c>
       <c r="J90" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="L90">
         <v>50</v>
@@ -20259,7 +20724,7 @@
     </row>
     <row r="92" spans="1:12" ht="30">
       <c r="A92" s="40" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="B92" s="32" t="s">
         <v>66</v>
@@ -20282,10 +20747,13 @@
     </row>
     <row r="94" spans="1:12" ht="30">
       <c r="A94" s="40" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B94" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C94" t="s">
+        <v>638</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -20305,10 +20773,13 @@
     </row>
     <row r="96" spans="1:12" ht="30">
       <c r="A96" s="40" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="B96" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C96" t="s">
+        <v>638</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
@@ -20320,7 +20791,7 @@
         <v>1156</v>
       </c>
       <c r="J96" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="L96">
         <v>50</v>
@@ -20328,10 +20799,13 @@
     </row>
     <row r="98" spans="1:12" ht="30">
       <c r="A98" s="40" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B98" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C98" t="s">
+        <v>638</v>
       </c>
       <c r="D98" t="s">
         <v>9</v>
@@ -20343,7 +20817,7 @@
         <v>1158</v>
       </c>
       <c r="J98" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="L98">
         <v>50</v>
@@ -20351,10 +20825,13 @@
     </row>
     <row r="100" spans="1:12" ht="30">
       <c r="A100" s="40" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="B100" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C100" t="s">
+        <v>638</v>
       </c>
       <c r="D100" t="s">
         <v>9</v>
@@ -20374,10 +20851,13 @@
     </row>
     <row r="102" spans="1:12" ht="30">
       <c r="A102" s="40" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B102" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C102" t="s">
+        <v>638</v>
       </c>
       <c r="D102" t="s">
         <v>9</v>
@@ -20397,10 +20877,13 @@
     </row>
     <row r="104" spans="1:12" ht="30">
       <c r="A104" s="40" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="B104" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C104" t="s">
+        <v>638</v>
       </c>
       <c r="D104" t="s">
         <v>9</v>
@@ -20420,7 +20903,7 @@
     </row>
     <row r="106" spans="1:12" ht="30">
       <c r="A106" s="40" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B106" s="32" t="s">
         <v>66</v>
@@ -20435,7 +20918,7 @@
         <v>1156</v>
       </c>
       <c r="J106" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="L106">
         <v>50</v>
@@ -20443,7 +20926,7 @@
     </row>
     <row r="108" spans="1:12" ht="30">
       <c r="A108" s="40" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="B108" s="32" t="s">
         <v>66</v>
@@ -20458,7 +20941,7 @@
         <v>1158</v>
       </c>
       <c r="J108" t="s">
-        <v>1195</v>
+        <v>1508</v>
       </c>
       <c r="L108">
         <v>50</v>
@@ -20466,10 +20949,13 @@
     </row>
     <row r="110" spans="1:12" ht="30">
       <c r="A110" s="40" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B110" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C110" t="s">
+        <v>638</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
@@ -20481,7 +20967,7 @@
         <v>1159</v>
       </c>
       <c r="J110" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="L110">
         <v>50</v>
@@ -20489,10 +20975,13 @@
     </row>
     <row r="112" spans="1:12" ht="30">
       <c r="A112" s="40" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="B112" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C112" t="s">
+        <v>638</v>
       </c>
       <c r="D112" t="s">
         <v>9</v>
@@ -20512,10 +21001,13 @@
     </row>
     <row r="114" spans="1:18" ht="30">
       <c r="A114" s="40" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B114" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C114" t="s">
+        <v>638</v>
       </c>
       <c r="D114" t="s">
         <v>9</v>
@@ -20535,10 +21027,13 @@
     </row>
     <row r="116" spans="1:18" ht="30">
       <c r="A116" s="40" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="B116" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C116" t="s">
+        <v>638</v>
       </c>
       <c r="D116" t="s">
         <v>9</v>
@@ -20558,10 +21053,13 @@
     </row>
     <row r="118" spans="1:18" ht="30">
       <c r="A118" s="40" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B118" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C118" t="s">
+        <v>638</v>
       </c>
       <c r="D118" t="s">
         <v>9</v>
@@ -20581,10 +21079,13 @@
     </row>
     <row r="120" spans="1:18" ht="30">
       <c r="A120" s="40" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="B120" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C120" t="s">
+        <v>638</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
@@ -20604,10 +21105,13 @@
     </row>
     <row r="122" spans="1:18">
       <c r="A122" s="65" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B122" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C122" t="s">
+        <v>638</v>
       </c>
       <c r="D122" t="s">
         <v>9</v>
@@ -20625,15 +21129,18 @@
         <v>1077</v>
       </c>
       <c r="O122">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:18">
       <c r="A124" s="65" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="B124" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C124" t="s">
+        <v>638</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
@@ -20651,15 +21158,18 @@
         <v>1077</v>
       </c>
       <c r="O124">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:18">
       <c r="A126" s="65" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="B126" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C126" t="s">
+        <v>638</v>
       </c>
       <c r="D126" t="s">
         <v>9</v>
@@ -20682,10 +21192,13 @@
     </row>
     <row r="128" spans="1:18">
       <c r="A128" s="65" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="B128" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C128" t="s">
+        <v>638</v>
       </c>
       <c r="D128" t="s">
         <v>9</v>
@@ -20702,10 +21215,10 @@
       <c r="N128" t="s">
         <v>1077</v>
       </c>
-      <c r="O128">
+      <c r="O128" s="69">
         <v>1</v>
       </c>
-      <c r="P128">
+      <c r="P128" s="69">
         <v>2023</v>
       </c>
       <c r="Q128" t="s">
@@ -20717,10 +21230,13 @@
     </row>
     <row r="130" spans="1:18" ht="30">
       <c r="A130" s="65" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="B130" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C130" t="s">
+        <v>638</v>
       </c>
       <c r="D130" t="s">
         <v>9</v>
@@ -20737,7 +21253,7 @@
       <c r="N130" t="s">
         <v>1077</v>
       </c>
-      <c r="O130">
+      <c r="O130" s="69">
         <v>1</v>
       </c>
       <c r="P130">
@@ -20746,16 +21262,19 @@
       <c r="Q130" t="s">
         <v>1077</v>
       </c>
-      <c r="R130">
+      <c r="R130" s="69">
         <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:18" ht="30">
       <c r="A132" s="65" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B132" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C132" t="s">
+        <v>638</v>
       </c>
       <c r="D132" t="s">
         <v>9</v>
@@ -20773,15 +21292,18 @@
         <v>1077</v>
       </c>
       <c r="O132">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:18" ht="30">
       <c r="A134" s="65" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="B134" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C134" t="s">
+        <v>638</v>
       </c>
       <c r="D134" t="s">
         <v>9</v>
@@ -20799,15 +21321,18 @@
         <v>1077</v>
       </c>
       <c r="O134">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:18" ht="30">
       <c r="A136" s="65" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B136" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C136" t="s">
+        <v>638</v>
       </c>
       <c r="D136" t="s">
         <v>9</v>
@@ -20830,10 +21355,13 @@
     </row>
     <row r="138" spans="1:18" ht="30">
       <c r="A138" s="65" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B138" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C138" t="s">
+        <v>638</v>
       </c>
       <c r="D138" t="s">
         <v>9</v>
@@ -20850,10 +21378,10 @@
       <c r="N138" t="s">
         <v>1077</v>
       </c>
-      <c r="O138">
+      <c r="O138" s="69">
         <v>1</v>
       </c>
-      <c r="P138">
+      <c r="P138" s="69">
         <v>2023</v>
       </c>
       <c r="Q138" t="s">
@@ -20865,10 +21393,13 @@
     </row>
     <row r="140" spans="1:18" ht="30">
       <c r="A140" s="65" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B140" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C140" t="s">
+        <v>638</v>
       </c>
       <c r="D140" t="s">
         <v>9</v>
@@ -20885,7 +21416,7 @@
       <c r="N140" t="s">
         <v>1077</v>
       </c>
-      <c r="O140">
+      <c r="O140" s="69">
         <v>1</v>
       </c>
       <c r="P140">
@@ -20894,51 +21425,57 @@
       <c r="Q140" t="s">
         <v>1077</v>
       </c>
-      <c r="R140">
+      <c r="R140" s="69">
         <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:18" ht="30">
-      <c r="A142" s="65" t="s">
-        <v>1401</v>
+      <c r="A142" s="40" t="s">
+        <v>1399</v>
       </c>
       <c r="B142" s="32" t="s">
         <v>66</v>
       </c>
+      <c r="C142" t="s">
+        <v>638</v>
+      </c>
       <c r="D142" t="s">
         <v>9</v>
       </c>
       <c r="H142" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="I142" t="s">
         <v>900</v>
       </c>
       <c r="J142" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="L142">
         <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:18" ht="30">
-      <c r="A144" s="65" t="s">
-        <v>1402</v>
+      <c r="A144" s="40" t="s">
+        <v>1400</v>
       </c>
       <c r="B144" s="32" t="s">
         <v>66</v>
       </c>
+      <c r="C144" t="s">
+        <v>638</v>
+      </c>
       <c r="D144" t="s">
         <v>9</v>
       </c>
       <c r="H144" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="I144" t="s">
         <v>1153</v>
       </c>
       <c r="J144" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="L144">
         <v>50</v>
@@ -20946,7 +21483,7 @@
     </row>
     <row r="146" spans="1:15" ht="30">
       <c r="A146" s="40" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B146" s="32" t="s">
         <v>66</v>
@@ -20961,7 +21498,7 @@
         <v>900</v>
       </c>
       <c r="J146" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="L146">
         <v>50</v>
@@ -20969,7 +21506,7 @@
     </row>
     <row r="148" spans="1:15" ht="30">
       <c r="A148" s="40" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B148" s="32" t="s">
         <v>66</v>
@@ -20992,7 +21529,7 @@
     </row>
     <row r="150" spans="1:15" ht="30">
       <c r="A150" s="40" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B150" s="32" t="s">
         <v>66</v>
@@ -21007,7 +21544,7 @@
         <v>1156</v>
       </c>
       <c r="J150" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="L150">
         <v>50</v>
@@ -21015,10 +21552,13 @@
     </row>
     <row r="152" spans="1:15" ht="30">
       <c r="A152" s="40" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B152" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C152" t="s">
+        <v>638</v>
       </c>
       <c r="D152" t="s">
         <v>9</v>
@@ -21030,7 +21570,7 @@
         <v>1158</v>
       </c>
       <c r="J152" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="L152">
         <v>50</v>
@@ -21038,7 +21578,7 @@
     </row>
     <row r="154" spans="1:15" ht="30">
       <c r="A154" s="40" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B154" s="32" t="s">
         <v>66</v>
@@ -21053,7 +21593,7 @@
         <v>1159</v>
       </c>
       <c r="J154" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="L154">
         <v>50</v>
@@ -21061,7 +21601,7 @@
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="44" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B156" s="32" t="s">
         <v>66</v>
@@ -21082,15 +21622,18 @@
         <v>1077</v>
       </c>
       <c r="O156">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="44" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B158" s="32" t="s">
         <v>66</v>
+      </c>
+      <c r="C158" t="s">
+        <v>638</v>
       </c>
       <c r="D158" t="s">
         <v>9</v>
@@ -21108,12 +21651,12 @@
         <v>1077</v>
       </c>
       <c r="O158">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="44" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B160" s="60" t="s">
         <v>66</v>
@@ -21139,7 +21682,7 @@
     </row>
     <row r="162" spans="1:18">
       <c r="A162" s="65" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B162" s="60" t="s">
         <v>66</v>
@@ -21159,10 +21702,10 @@
       <c r="N162" t="s">
         <v>1077</v>
       </c>
-      <c r="O162">
+      <c r="O162" s="69">
         <v>1</v>
       </c>
-      <c r="P162">
+      <c r="P162" s="69">
         <v>2023</v>
       </c>
       <c r="Q162" t="s">
@@ -21174,7 +21717,7 @@
     </row>
     <row r="164" spans="1:18">
       <c r="A164" s="65" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B164" s="60" t="s">
         <v>66</v>
@@ -21194,7 +21737,7 @@
       <c r="N164" t="s">
         <v>1077</v>
       </c>
-      <c r="O164">
+      <c r="O164" s="69">
         <v>1</v>
       </c>
       <c r="P164">
@@ -21203,13 +21746,13 @@
       <c r="Q164" t="s">
         <v>1077</v>
       </c>
-      <c r="R164">
+      <c r="R164" s="69">
         <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:18" ht="30">
       <c r="A166" s="65" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B166" s="60" t="s">
         <v>66</v>
@@ -21230,12 +21773,12 @@
         <v>1077</v>
       </c>
       <c r="O166">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:18" ht="30">
       <c r="A168" s="65" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B168" s="60" t="s">
         <v>66</v>
@@ -21256,12 +21799,12 @@
         <v>1077</v>
       </c>
       <c r="O168">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:18" ht="30">
       <c r="A170" s="65" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B170" s="60" t="s">
         <v>66</v>
@@ -21287,7 +21830,7 @@
     </row>
     <row r="172" spans="1:18" ht="30">
       <c r="A172" s="65" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="B172" s="60" t="s">
         <v>66</v>
@@ -21307,10 +21850,10 @@
       <c r="N172" t="s">
         <v>1077</v>
       </c>
-      <c r="O172">
+      <c r="O172" s="69">
         <v>1</v>
       </c>
-      <c r="P172">
+      <c r="P172" s="69">
         <v>2023</v>
       </c>
       <c r="Q172" t="s">
@@ -21322,7 +21865,7 @@
     </row>
     <row r="174" spans="1:18" ht="30">
       <c r="A174" s="65" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B174" s="60" t="s">
         <v>66</v>
@@ -21342,7 +21885,7 @@
       <c r="N174" t="s">
         <v>1077</v>
       </c>
-      <c r="O174">
+      <c r="O174" s="69">
         <v>1</v>
       </c>
       <c r="P174">
@@ -21351,13 +21894,13 @@
       <c r="Q174" t="s">
         <v>1077</v>
       </c>
-      <c r="R174">
+      <c r="R174" s="69">
         <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:18" ht="30">
       <c r="A176" s="40" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="B176" s="60" t="s">
         <v>66</v>
@@ -21366,13 +21909,13 @@
         <v>9</v>
       </c>
       <c r="H176" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="I176" t="s">
         <v>900</v>
       </c>
       <c r="J176" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="L176">
         <v>50</v>
@@ -21380,7 +21923,7 @@
     </row>
     <row r="178" spans="1:18" ht="30">
       <c r="A178" s="40" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B178" s="60" t="s">
         <v>66</v>
@@ -21389,13 +21932,13 @@
         <v>9</v>
       </c>
       <c r="H178" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="I178" t="s">
         <v>1153</v>
       </c>
       <c r="J178" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="L178">
         <v>50</v>
@@ -21403,22 +21946,25 @@
     </row>
     <row r="180" spans="1:18" ht="30">
       <c r="A180" s="40" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B180" s="60" t="s">
         <v>66</v>
       </c>
+      <c r="C180" t="s">
+        <v>638</v>
+      </c>
       <c r="D180" t="s">
         <v>9</v>
       </c>
       <c r="H180" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="I180" t="s">
         <v>1156</v>
       </c>
       <c r="J180" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="L180">
         <v>50</v>
@@ -21426,7 +21972,7 @@
     </row>
     <row r="182" spans="1:18" ht="30">
       <c r="A182" s="40" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B182" s="60" t="s">
         <v>66</v>
@@ -21435,13 +21981,13 @@
         <v>9</v>
       </c>
       <c r="H182" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="I182" t="s">
         <v>1158</v>
       </c>
       <c r="J182" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="L182">
         <v>50</v>
@@ -21449,7 +21995,7 @@
     </row>
     <row r="184" spans="1:18" ht="30">
       <c r="A184" s="40" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B184" s="60" t="s">
         <v>66</v>
@@ -21458,13 +22004,13 @@
         <v>9</v>
       </c>
       <c r="H184" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="I184" t="s">
         <v>1159</v>
       </c>
       <c r="J184" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="L184">
         <v>50</v>
@@ -21472,10 +22018,13 @@
     </row>
     <row r="186" spans="1:18" ht="30">
       <c r="A186" s="65" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B186" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C186" t="s">
+        <v>638</v>
       </c>
       <c r="D186" t="s">
         <v>9</v>
@@ -21493,15 +22042,18 @@
         <v>1077</v>
       </c>
       <c r="O186">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:18" ht="30">
       <c r="A188" s="65" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B188" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C188" t="s">
+        <v>638</v>
       </c>
       <c r="D188" t="s">
         <v>9</v>
@@ -21519,15 +22071,18 @@
         <v>1077</v>
       </c>
       <c r="O188">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:18" ht="30">
       <c r="A190" s="65" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B190" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C190" t="s">
+        <v>638</v>
       </c>
       <c r="D190" t="s">
         <v>9</v>
@@ -21550,10 +22105,13 @@
     </row>
     <row r="192" spans="1:18" ht="30">
       <c r="A192" s="65" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="B192" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C192" t="s">
+        <v>638</v>
       </c>
       <c r="D192" t="s">
         <v>9</v>
@@ -21570,10 +22128,10 @@
       <c r="N192" t="s">
         <v>1077</v>
       </c>
-      <c r="O192">
+      <c r="O192" s="69">
         <v>1</v>
       </c>
-      <c r="P192">
+      <c r="P192" s="69">
         <v>2023</v>
       </c>
       <c r="Q192" t="s">
@@ -21585,10 +22143,13 @@
     </row>
     <row r="194" spans="1:18" ht="30">
       <c r="A194" s="65" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B194" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C194" t="s">
+        <v>638</v>
       </c>
       <c r="D194" t="s">
         <v>9</v>
@@ -21605,7 +22166,7 @@
       <c r="N194" t="s">
         <v>1077</v>
       </c>
-      <c r="O194">
+      <c r="O194" s="69">
         <v>1</v>
       </c>
       <c r="P194">
@@ -21614,28 +22175,31 @@
       <c r="Q194" t="s">
         <v>1077</v>
       </c>
-      <c r="R194">
+      <c r="R194" s="69">
         <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:18" ht="30">
       <c r="A196" s="40" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B196" s="60" t="s">
         <v>66</v>
       </c>
+      <c r="C196" t="s">
+        <v>638</v>
+      </c>
       <c r="D196" t="s">
         <v>9</v>
       </c>
       <c r="H196" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="I196" t="s">
         <v>900</v>
       </c>
       <c r="J196" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="L196">
         <v>50</v>
@@ -21643,22 +22207,25 @@
     </row>
     <row r="198" spans="1:18" ht="30">
       <c r="A198" s="40" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B198" s="60" t="s">
         <v>66</v>
       </c>
+      <c r="C198" t="s">
+        <v>638</v>
+      </c>
       <c r="D198" t="s">
         <v>9</v>
       </c>
       <c r="H198" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="I198" t="s">
         <v>1153</v>
       </c>
       <c r="J198" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="L198">
         <v>50</v>
@@ -21666,22 +22233,25 @@
     </row>
     <row r="200" spans="1:18" ht="30">
       <c r="A200" s="40" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B200" s="60" t="s">
         <v>66</v>
       </c>
+      <c r="C200" t="s">
+        <v>638</v>
+      </c>
       <c r="D200" t="s">
         <v>9</v>
       </c>
       <c r="H200" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I200" t="s">
         <v>900</v>
       </c>
       <c r="J200" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="L200">
         <v>50</v>
@@ -21689,22 +22259,25 @@
     </row>
     <row r="202" spans="1:18" ht="30">
       <c r="A202" s="40" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B202" s="60" t="s">
         <v>66</v>
       </c>
+      <c r="C202" t="s">
+        <v>638</v>
+      </c>
       <c r="D202" t="s">
         <v>9</v>
       </c>
       <c r="H202" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I202" t="s">
         <v>1153</v>
       </c>
       <c r="J202" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="L202">
         <v>50</v>
@@ -21712,7 +22285,7 @@
     </row>
     <row r="204" spans="1:18" ht="30">
       <c r="A204" s="40" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B204" s="60" t="s">
         <v>66</v>
@@ -21735,7 +22308,7 @@
     </row>
     <row r="206" spans="1:18" ht="30">
       <c r="A206" s="40" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B206" s="60" t="s">
         <v>66</v>
@@ -21758,10 +22331,13 @@
     </row>
     <row r="208" spans="1:18" ht="30">
       <c r="A208" s="40" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B208" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C208" t="s">
+        <v>638</v>
       </c>
       <c r="D208" t="s">
         <v>9</v>
@@ -21773,7 +22349,7 @@
         <v>1156</v>
       </c>
       <c r="J208" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="L208">
         <v>50</v>
@@ -21781,10 +22357,13 @@
     </row>
     <row r="210" spans="1:12" ht="30">
       <c r="A210" s="40" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B210" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C210" t="s">
+        <v>638</v>
       </c>
       <c r="D210" t="s">
         <v>9</v>
@@ -21804,7 +22383,7 @@
     </row>
     <row r="212" spans="1:12" ht="30">
       <c r="A212" s="40" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B212" s="60" t="s">
         <v>66</v>
@@ -21827,22 +22406,25 @@
     </row>
     <row r="214" spans="1:12" ht="30">
       <c r="A214" s="40" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B214" s="60" t="s">
         <v>66</v>
       </c>
+      <c r="C214" t="s">
+        <v>638</v>
+      </c>
       <c r="D214" t="s">
         <v>9</v>
       </c>
       <c r="H214" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I214" t="s">
         <v>900</v>
       </c>
       <c r="J214" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="L214">
         <v>50</v>
@@ -21850,22 +22432,25 @@
     </row>
     <row r="216" spans="1:12" ht="30">
       <c r="A216" s="40" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B216" s="60" t="s">
         <v>66</v>
       </c>
+      <c r="C216" t="s">
+        <v>638</v>
+      </c>
       <c r="D216" t="s">
         <v>9</v>
       </c>
       <c r="H216" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I216" t="s">
         <v>1153</v>
       </c>
       <c r="J216" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="L216">
         <v>50</v>
@@ -21873,7 +22458,7 @@
     </row>
     <row r="218" spans="1:12" ht="30">
       <c r="A218" s="40" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B218" s="60" t="s">
         <v>66</v>
@@ -21882,7 +22467,7 @@
         <v>9</v>
       </c>
       <c r="H218" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I218" t="s">
         <v>1156</v>
@@ -21896,16 +22481,19 @@
     </row>
     <row r="220" spans="1:12" ht="30">
       <c r="A220" s="40" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B220" s="60" t="s">
         <v>66</v>
       </c>
+      <c r="C220" t="s">
+        <v>638</v>
+      </c>
       <c r="D220" t="s">
         <v>9</v>
       </c>
       <c r="H220" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I220" t="s">
         <v>1158</v>
@@ -21919,16 +22507,19 @@
     </row>
     <row r="222" spans="1:12" ht="30">
       <c r="A222" s="40" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B222" s="60" t="s">
         <v>66</v>
       </c>
+      <c r="C222" t="s">
+        <v>638</v>
+      </c>
       <c r="D222" t="s">
         <v>9</v>
       </c>
       <c r="H222" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I222" t="s">
         <v>1159</v>
@@ -21942,7 +22533,7 @@
     </row>
     <row r="224" spans="1:12" ht="30">
       <c r="A224" s="40" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B224" s="60" t="s">
         <v>66</v>
@@ -21957,7 +22548,7 @@
         <v>900</v>
       </c>
       <c r="J224" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="L224">
         <v>50</v>
@@ -21965,10 +22556,13 @@
     </row>
     <row r="226" spans="1:18" ht="30">
       <c r="A226" s="40" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B226" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C226" t="s">
+        <v>638</v>
       </c>
       <c r="D226" t="s">
         <v>9</v>
@@ -21980,7 +22574,7 @@
         <v>1153</v>
       </c>
       <c r="J226" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="L226">
         <v>50</v>
@@ -21988,10 +22582,13 @@
     </row>
     <row r="228" spans="1:18">
       <c r="A228" s="44" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B228" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C228" t="s">
+        <v>638</v>
       </c>
       <c r="D228" t="s">
         <v>9</v>
@@ -22009,15 +22606,18 @@
         <v>1077</v>
       </c>
       <c r="O228">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="230" spans="1:18">
       <c r="A230" s="44" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B230" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C230" t="s">
+        <v>638</v>
       </c>
       <c r="D230" t="s">
         <v>9</v>
@@ -22035,15 +22635,18 @@
         <v>1077</v>
       </c>
       <c r="O230">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:18">
       <c r="A232" s="44" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B232" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C232" t="s">
+        <v>638</v>
       </c>
       <c r="D232" t="s">
         <v>9</v>
@@ -22066,10 +22669,13 @@
     </row>
     <row r="234" spans="1:18">
       <c r="A234" s="44" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="B234" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C234" t="s">
+        <v>638</v>
       </c>
       <c r="D234" t="s">
         <v>9</v>
@@ -22086,10 +22692,10 @@
       <c r="N234" t="s">
         <v>1077</v>
       </c>
-      <c r="O234">
+      <c r="O234" s="69">
         <v>1</v>
       </c>
-      <c r="P234">
+      <c r="P234" s="69">
         <v>2023</v>
       </c>
       <c r="Q234" t="s">
@@ -22101,10 +22707,13 @@
     </row>
     <row r="236" spans="1:18" ht="30">
       <c r="A236" s="65" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B236" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C236" t="s">
+        <v>638</v>
       </c>
       <c r="D236" t="s">
         <v>9</v>
@@ -22121,7 +22730,7 @@
       <c r="N236" t="s">
         <v>1077</v>
       </c>
-      <c r="O236">
+      <c r="O236" s="69">
         <v>1</v>
       </c>
       <c r="P236">
@@ -22130,13 +22739,13 @@
       <c r="Q236" t="s">
         <v>1077</v>
       </c>
-      <c r="R236">
+      <c r="R236" s="69">
         <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:18" ht="30">
       <c r="A238" s="40" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B238" s="60" t="s">
         <v>66</v>
@@ -22145,13 +22754,13 @@
         <v>9</v>
       </c>
       <c r="H238" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="I238" t="s">
         <v>900</v>
       </c>
       <c r="J238" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="L238">
         <v>50</v>
@@ -22159,22 +22768,25 @@
     </row>
     <row r="240" spans="1:18" ht="30">
       <c r="A240" s="40" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B240" s="60" t="s">
         <v>66</v>
       </c>
+      <c r="C240" t="s">
+        <v>638</v>
+      </c>
       <c r="D240" t="s">
         <v>9</v>
       </c>
       <c r="H240" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="I240" t="s">
         <v>1153</v>
       </c>
       <c r="J240" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="L240">
         <v>50</v>
@@ -22182,22 +22794,25 @@
     </row>
     <row r="242" spans="1:12" ht="30">
       <c r="A242" s="40" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B242" s="60" t="s">
         <v>66</v>
       </c>
+      <c r="C242" t="s">
+        <v>638</v>
+      </c>
       <c r="D242" t="s">
         <v>9</v>
       </c>
       <c r="H242" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I242" t="s">
         <v>900</v>
       </c>
       <c r="J242" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="L242">
         <v>50</v>
@@ -22205,34 +22820,33 @@
     </row>
     <row r="244" spans="1:12" ht="30">
       <c r="A244" s="40" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B244" s="60" t="s">
         <v>66</v>
       </c>
+      <c r="C244" t="s">
+        <v>638</v>
+      </c>
       <c r="D244" t="s">
         <v>9</v>
       </c>
       <c r="H244" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I244" t="s">
         <v>1153</v>
       </c>
       <c r="J244" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="L244">
         <v>50</v>
       </c>
-    </row>
-    <row r="245" spans="1:12">
-      <c r="A245" s="73"/>
-      <c r="B245" s="60"/>
     </row>
     <row r="246" spans="1:12" ht="30">
       <c r="A246" s="40" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B246" s="60" t="s">
         <v>66</v>
@@ -22253,13 +22867,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="247" spans="1:12">
-      <c r="A247" s="73"/>
-      <c r="B247" s="60"/>
-    </row>
     <row r="248" spans="1:12" ht="30">
       <c r="A248" s="40" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="B248" s="60" t="s">
         <v>66</v>
@@ -22280,16 +22890,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="249" spans="1:12">
-      <c r="A249" s="73"/>
-      <c r="B249" s="60"/>
-    </row>
     <row r="250" spans="1:12" ht="30">
       <c r="A250" s="40" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="B250" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C250" t="s">
+        <v>638</v>
       </c>
       <c r="D250" t="s">
         <v>9</v>
@@ -22301,19 +22910,15 @@
         <v>1156</v>
       </c>
       <c r="J250" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="L250">
         <v>50</v>
       </c>
-    </row>
-    <row r="251" spans="1:12">
-      <c r="A251" s="73"/>
-      <c r="B251" s="60"/>
     </row>
     <row r="252" spans="1:12" ht="30">
       <c r="A252" s="40" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="B252" s="60" t="s">
         <v>66</v>
@@ -22328,19 +22933,15 @@
         <v>1158</v>
       </c>
       <c r="J252" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="L252">
         <v>50</v>
       </c>
-    </row>
-    <row r="253" spans="1:12">
-      <c r="A253" s="73"/>
-      <c r="B253" s="60"/>
     </row>
     <row r="254" spans="1:12" ht="30">
       <c r="A254" s="40" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="B254" s="60" t="s">
         <v>66</v>
@@ -22361,16 +22962,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="255" spans="1:12">
-      <c r="A255" s="73"/>
-      <c r="B255" s="60"/>
-    </row>
     <row r="256" spans="1:12" ht="30">
       <c r="A256" s="40" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="B256" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C256" t="s">
+        <v>638</v>
       </c>
       <c r="D256" t="s">
         <v>9</v>
@@ -22388,16 +22988,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="257" spans="1:12">
-      <c r="A257" s="73"/>
-      <c r="B257" s="60"/>
-    </row>
     <row r="258" spans="1:12" ht="30">
       <c r="A258" s="40" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="B258" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C258" t="s">
+        <v>638</v>
       </c>
       <c r="D258" t="s">
         <v>9</v>
@@ -22415,16 +23014,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="259" spans="1:12">
-      <c r="A259" s="73"/>
-      <c r="B259" s="60"/>
-    </row>
     <row r="260" spans="1:12" ht="30">
       <c r="A260" s="40" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B260" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C260" t="s">
+        <v>638</v>
       </c>
       <c r="D260" t="s">
         <v>9</v>
@@ -22436,22 +23034,21 @@
         <v>1156</v>
       </c>
       <c r="J260" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="L260">
         <v>50</v>
       </c>
-    </row>
-    <row r="261" spans="1:12">
-      <c r="A261" s="73"/>
-      <c r="B261" s="60"/>
     </row>
     <row r="262" spans="1:12" ht="30">
       <c r="A262" s="40" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="B262" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C262" t="s">
+        <v>638</v>
       </c>
       <c r="D262" t="s">
         <v>9</v>
@@ -22463,22 +23060,21 @@
         <v>1158</v>
       </c>
       <c r="J262" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="L262">
         <v>50</v>
       </c>
-    </row>
-    <row r="263" spans="1:12">
-      <c r="A263" s="73"/>
-      <c r="B263" s="60"/>
     </row>
     <row r="264" spans="1:12" ht="30">
       <c r="A264" s="40" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="B264" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C264" t="s">
+        <v>638</v>
       </c>
       <c r="D264" t="s">
         <v>9</v>
@@ -22490,22 +23086,21 @@
         <v>1159</v>
       </c>
       <c r="J264" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="L264">
         <v>50</v>
       </c>
-    </row>
-    <row r="265" spans="1:12">
-      <c r="A265" s="73"/>
-      <c r="B265" s="60"/>
     </row>
     <row r="266" spans="1:12" ht="30">
       <c r="A266" s="40" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="B266" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C266" t="s">
+        <v>638</v>
       </c>
       <c r="D266" t="s">
         <v>9</v>
@@ -22523,16 +23118,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="267" spans="1:12">
-      <c r="A267" s="73"/>
-      <c r="B267" s="60"/>
-    </row>
     <row r="268" spans="1:12" ht="30">
       <c r="A268" s="40" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="B268" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C268" t="s">
+        <v>638</v>
       </c>
       <c r="D268" t="s">
         <v>9</v>
@@ -22550,13 +23144,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="269" spans="1:12">
-      <c r="A269" s="73"/>
-      <c r="B269" s="60"/>
-    </row>
     <row r="270" spans="1:12" ht="30">
       <c r="A270" s="40" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B270" s="60" t="s">
         <v>66</v>
@@ -22571,19 +23161,15 @@
         <v>1156</v>
       </c>
       <c r="J270" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="L270">
         <v>50</v>
       </c>
-    </row>
-    <row r="271" spans="1:12">
-      <c r="A271" s="73"/>
-      <c r="B271" s="60"/>
     </row>
     <row r="272" spans="1:12" ht="30">
       <c r="A272" s="40" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B272" s="60" t="s">
         <v>66</v>
@@ -22598,22 +23184,21 @@
         <v>1158</v>
       </c>
       <c r="J272" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="L272">
         <v>50</v>
       </c>
-    </row>
-    <row r="273" spans="1:18">
-      <c r="A273" s="73"/>
-      <c r="B273" s="60"/>
     </row>
     <row r="274" spans="1:18" ht="30">
       <c r="A274" s="40" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B274" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C274" t="s">
+        <v>638</v>
       </c>
       <c r="D274" t="s">
         <v>9</v>
@@ -22631,16 +23216,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="275" spans="1:18">
-      <c r="A275" s="74"/>
-      <c r="B275" s="60"/>
-    </row>
     <row r="276" spans="1:18">
       <c r="A276" s="65" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B276" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C276" t="s">
+        <v>638</v>
       </c>
       <c r="D276" t="s">
         <v>9</v>
@@ -22658,19 +23242,18 @@
         <v>1077</v>
       </c>
       <c r="O276">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="277" spans="1:18">
-      <c r="A277" s="74"/>
-      <c r="B277" s="60"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="278" spans="1:18">
       <c r="A278" s="65" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B278" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C278" t="s">
+        <v>638</v>
       </c>
       <c r="D278" t="s">
         <v>9</v>
@@ -22688,19 +23271,18 @@
         <v>1077</v>
       </c>
       <c r="O278">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="279" spans="1:18">
-      <c r="A279" s="74"/>
-      <c r="B279" s="60"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="280" spans="1:18">
       <c r="A280" s="65" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B280" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C280" t="s">
+        <v>638</v>
       </c>
       <c r="D280" t="s">
         <v>9</v>
@@ -22721,16 +23303,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:18">
-      <c r="A281" s="74"/>
-      <c r="B281" s="60"/>
-    </row>
     <row r="282" spans="1:18" ht="30">
       <c r="A282" s="65" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B282" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C282" t="s">
+        <v>638</v>
       </c>
       <c r="D282" t="s">
         <v>9</v>
@@ -22747,10 +23328,10 @@
       <c r="N282" t="s">
         <v>1077</v>
       </c>
-      <c r="O282">
+      <c r="O282" s="69">
         <v>1</v>
       </c>
-      <c r="P282">
+      <c r="P282" s="69">
         <v>2023</v>
       </c>
       <c r="Q282" t="s">
@@ -22760,16 +23341,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="283" spans="1:18">
-      <c r="A283" s="74"/>
-      <c r="B283" s="60"/>
-    </row>
     <row r="284" spans="1:18" ht="30">
       <c r="A284" s="65" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="B284" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C284" t="s">
+        <v>638</v>
       </c>
       <c r="D284" t="s">
         <v>9</v>
@@ -22786,7 +23366,7 @@
       <c r="N284" t="s">
         <v>1077</v>
       </c>
-      <c r="O284">
+      <c r="O284" s="69">
         <v>1</v>
       </c>
       <c r="P284">
@@ -22795,20 +23375,19 @@
       <c r="Q284" t="s">
         <v>1077</v>
       </c>
-      <c r="R284">
+      <c r="R284" s="69">
         <v>2</v>
       </c>
-    </row>
-    <row r="285" spans="1:18">
-      <c r="A285" s="73"/>
-      <c r="B285" s="60"/>
     </row>
     <row r="286" spans="1:18" ht="30">
       <c r="A286" s="65" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B286" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C286" t="s">
+        <v>638</v>
       </c>
       <c r="D286" t="s">
         <v>9</v>
@@ -22826,19 +23405,18 @@
         <v>1077</v>
       </c>
       <c r="O286">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="287" spans="1:18">
-      <c r="A287" s="73"/>
-      <c r="B287" s="60"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="288" spans="1:18" ht="30">
       <c r="A288" s="65" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="B288" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C288" t="s">
+        <v>638</v>
       </c>
       <c r="D288" t="s">
         <v>9</v>
@@ -22856,19 +23434,18 @@
         <v>1077</v>
       </c>
       <c r="O288">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="289" spans="1:18">
-      <c r="A289" s="73"/>
-      <c r="B289" s="60"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="290" spans="1:18" ht="30">
       <c r="A290" s="65" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="B290" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C290" t="s">
+        <v>638</v>
       </c>
       <c r="D290" t="s">
         <v>9</v>
@@ -22889,16 +23466,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:18">
-      <c r="A291" s="73"/>
-      <c r="B291" s="60"/>
-    </row>
     <row r="292" spans="1:18" ht="30">
       <c r="A292" s="65" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="B292" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C292" t="s">
+        <v>638</v>
       </c>
       <c r="D292" t="s">
         <v>9</v>
@@ -22915,10 +23491,10 @@
       <c r="N292" t="s">
         <v>1077</v>
       </c>
-      <c r="O292">
+      <c r="O292" s="69">
         <v>1</v>
       </c>
-      <c r="P292">
+      <c r="P292" s="69">
         <v>2023</v>
       </c>
       <c r="Q292" t="s">
@@ -22930,10 +23506,13 @@
     </row>
     <row r="294" spans="1:18" ht="30">
       <c r="A294" s="65" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B294" s="60" t="s">
         <v>66</v>
+      </c>
+      <c r="C294" t="s">
+        <v>638</v>
       </c>
       <c r="D294" t="s">
         <v>9</v>
@@ -22950,7 +23529,7 @@
       <c r="N294" t="s">
         <v>1077</v>
       </c>
-      <c r="O294">
+      <c r="O294" s="69">
         <v>1</v>
       </c>
       <c r="P294">
@@ -22959,13 +23538,13 @@
       <c r="Q294" t="s">
         <v>1077</v>
       </c>
-      <c r="R294">
+      <c r="R294" s="69">
         <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:18" ht="30">
       <c r="A296" s="40" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B296" s="60" t="s">
         <v>66</v>
@@ -22974,13 +23553,13 @@
         <v>9</v>
       </c>
       <c r="H296" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="I296" t="s">
         <v>900</v>
       </c>
       <c r="J296" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="L296">
         <v>50</v>
@@ -22988,7 +23567,7 @@
     </row>
     <row r="298" spans="1:18" ht="30">
       <c r="A298" s="40" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B298" s="60" t="s">
         <v>66</v>
@@ -22997,13 +23576,13 @@
         <v>9</v>
       </c>
       <c r="H298" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="I298" t="s">
         <v>1153</v>
       </c>
       <c r="J298" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="L298">
         <v>50</v>
@@ -23011,7 +23590,7 @@
     </row>
     <row r="300" spans="1:18" ht="30">
       <c r="A300" s="40" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B300" s="60" t="s">
         <v>66</v>
@@ -23020,7 +23599,7 @@
         <v>9</v>
       </c>
       <c r="H300" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="I300" t="s">
         <v>900</v>
@@ -23034,7 +23613,7 @@
     </row>
     <row r="302" spans="1:18" ht="30">
       <c r="A302" s="40" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B302" s="60" t="s">
         <v>66</v>
@@ -23043,13 +23622,13 @@
         <v>9</v>
       </c>
       <c r="H302" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="I302" t="s">
         <v>1153</v>
       </c>
       <c r="J302" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="L302">
         <v>50</v>
@@ -23057,7 +23636,7 @@
     </row>
     <row r="304" spans="1:18" ht="30">
       <c r="A304" s="40" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B304" s="60" t="s">
         <v>66</v>
@@ -23066,13 +23645,13 @@
         <v>9</v>
       </c>
       <c r="H304" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="I304" t="s">
         <v>1156</v>
       </c>
       <c r="J304" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="L304">
         <v>50</v>
@@ -23080,7 +23659,7 @@
     </row>
     <row r="306" spans="1:12" ht="30">
       <c r="A306" s="40" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B306" s="60" t="s">
         <v>66</v>
@@ -23089,13 +23668,13 @@
         <v>9</v>
       </c>
       <c r="H306" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="I306" t="s">
         <v>1158</v>
       </c>
       <c r="J306" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="L306">
         <v>50</v>
@@ -23103,7 +23682,7 @@
     </row>
     <row r="308" spans="1:12" ht="30">
       <c r="A308" s="40" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B308" s="60" t="s">
         <v>66</v>
@@ -23112,13 +23691,13 @@
         <v>9</v>
       </c>
       <c r="H308" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="I308" t="s">
         <v>1159</v>
       </c>
       <c r="J308" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="L308">
         <v>50</v>
@@ -23126,7 +23705,7 @@
     </row>
     <row r="310" spans="1:12" ht="30">
       <c r="A310" s="40" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B310" s="60" t="s">
         <v>66</v>
@@ -23149,7 +23728,7 @@
     </row>
     <row r="312" spans="1:12" ht="30">
       <c r="A312" s="40" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B312" s="60" t="s">
         <v>66</v>
@@ -23172,7 +23751,7 @@
     </row>
     <row r="314" spans="1:12" ht="30">
       <c r="A314" s="40" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B314" s="60" t="s">
         <v>66</v>
@@ -23187,7 +23766,7 @@
         <v>1156</v>
       </c>
       <c r="J314" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="L314">
         <v>50</v>
@@ -23195,7 +23774,7 @@
     </row>
     <row r="316" spans="1:12" ht="30">
       <c r="A316" s="40" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B316" s="60" t="s">
         <v>66</v>
@@ -23218,7 +23797,7 @@
     </row>
     <row r="318" spans="1:12" ht="30">
       <c r="A318" s="40" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B318" s="60" t="s">
         <v>66</v>
@@ -23233,7 +23812,7 @@
         <v>1159</v>
       </c>
       <c r="J318" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="L318">
         <v>50</v>
@@ -23241,7 +23820,7 @@
     </row>
     <row r="320" spans="1:12" ht="30">
       <c r="A320" s="40" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B320" s="60" t="s">
         <v>66</v>
@@ -23250,7 +23829,7 @@
         <v>9</v>
       </c>
       <c r="H320" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="I320" t="s">
         <v>900</v>
@@ -23264,7 +23843,7 @@
     </row>
     <row r="322" spans="1:18" ht="30">
       <c r="A322" s="40" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B322" s="60" t="s">
         <v>66</v>
@@ -23273,13 +23852,13 @@
         <v>9</v>
       </c>
       <c r="H322" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="I322" t="s">
         <v>1153</v>
       </c>
       <c r="J322" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="L322">
         <v>50</v>
@@ -23287,7 +23866,7 @@
     </row>
     <row r="324" spans="1:18" ht="30">
       <c r="A324" s="40" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B324" s="60" t="s">
         <v>66</v>
@@ -23296,13 +23875,13 @@
         <v>9</v>
       </c>
       <c r="H324" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="I324" t="s">
         <v>1156</v>
       </c>
       <c r="J324" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="L324">
         <v>50</v>
@@ -23310,7 +23889,7 @@
     </row>
     <row r="326" spans="1:18" ht="30">
       <c r="A326" s="40" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B326" s="60" t="s">
         <v>66</v>
@@ -23319,13 +23898,13 @@
         <v>9</v>
       </c>
       <c r="H326" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="I326" t="s">
         <v>1158</v>
       </c>
       <c r="J326" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="L326">
         <v>50</v>
@@ -23333,7 +23912,7 @@
     </row>
     <row r="328" spans="1:18" ht="30">
       <c r="A328" s="40" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B328" s="60" t="s">
         <v>66</v>
@@ -23342,13 +23921,13 @@
         <v>9</v>
       </c>
       <c r="H328" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="I328" t="s">
         <v>1159</v>
       </c>
       <c r="J328" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="L328">
         <v>50</v>
@@ -23356,7 +23935,7 @@
     </row>
     <row r="330" spans="1:18">
       <c r="A330" s="65" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B330" s="60" t="s">
         <v>66</v>
@@ -23382,7 +23961,7 @@
     </row>
     <row r="332" spans="1:18">
       <c r="A332" s="65" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B332" s="60" t="s">
         <v>66</v>
@@ -23408,7 +23987,7 @@
     </row>
     <row r="334" spans="1:18">
       <c r="A334" s="65" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B334" s="60" t="s">
         <v>66</v>
@@ -23434,7 +24013,7 @@
     </row>
     <row r="336" spans="1:18" ht="30">
       <c r="A336" s="65" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B336" s="60" t="s">
         <v>66</v>
@@ -23469,7 +24048,7 @@
     </row>
     <row r="338" spans="1:18" ht="30">
       <c r="A338" s="65" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B338" s="60" t="s">
         <v>66</v>
@@ -23504,7 +24083,7 @@
     </row>
     <row r="340" spans="1:18" ht="30">
       <c r="A340" s="40" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B340" s="60" t="s">
         <v>66</v>
@@ -23513,13 +24092,13 @@
         <v>9</v>
       </c>
       <c r="H340" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="I340" t="s">
         <v>900</v>
       </c>
       <c r="J340" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="L340">
         <v>50</v>
@@ -23527,7 +24106,7 @@
     </row>
     <row r="342" spans="1:18" ht="30">
       <c r="A342" s="40" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B342" s="60" t="s">
         <v>66</v>
@@ -23536,13 +24115,13 @@
         <v>9</v>
       </c>
       <c r="H342" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="I342" t="s">
         <v>1153</v>
       </c>
       <c r="J342" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="L342">
         <v>50</v>
@@ -23550,7 +24129,7 @@
     </row>
     <row r="344" spans="1:18" ht="30">
       <c r="A344" s="40" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B344" s="60" t="s">
         <v>66</v>
@@ -23559,7 +24138,7 @@
         <v>9</v>
       </c>
       <c r="H344" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="I344" t="s">
         <v>900</v>
@@ -23573,7 +24152,7 @@
     </row>
     <row r="346" spans="1:18" ht="30">
       <c r="A346" s="40" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B346" s="60" t="s">
         <v>66</v>
@@ -23582,7 +24161,7 @@
         <v>9</v>
       </c>
       <c r="H346" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="I346" t="s">
         <v>1153</v>
@@ -23596,7 +24175,7 @@
     </row>
     <row r="348" spans="1:18" ht="30">
       <c r="A348" s="40" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B348" s="60" t="s">
         <v>66</v>
@@ -23605,13 +24184,13 @@
         <v>9</v>
       </c>
       <c r="H348" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="I348" t="s">
         <v>1156</v>
       </c>
       <c r="J348" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="L348">
         <v>50</v>
@@ -23619,7 +24198,7 @@
     </row>
     <row r="350" spans="1:18" ht="30">
       <c r="A350" s="40" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B350" s="60" t="s">
         <v>66</v>
@@ -23628,7 +24207,7 @@
         <v>9</v>
       </c>
       <c r="H350" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="I350" t="s">
         <v>1158</v>
@@ -23642,7 +24221,7 @@
     </row>
     <row r="352" spans="1:18" ht="30">
       <c r="A352" s="40" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B352" s="60" t="s">
         <v>66</v>
@@ -23651,13 +24230,13 @@
         <v>9</v>
       </c>
       <c r="H352" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="I352" t="s">
         <v>1159</v>
       </c>
       <c r="J352" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="L352">
         <v>50</v>
@@ -23665,7 +24244,7 @@
     </row>
     <row r="354" spans="1:12" ht="30">
       <c r="A354" s="40" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B354" s="60" t="s">
         <v>66</v>
@@ -23674,13 +24253,13 @@
         <v>9</v>
       </c>
       <c r="H354" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="I354" t="s">
         <v>900</v>
       </c>
       <c r="J354" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="L354">
         <v>50</v>
@@ -23688,7 +24267,7 @@
     </row>
     <row r="356" spans="1:12" ht="30">
       <c r="A356" s="40" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="B356" s="60" t="s">
         <v>66</v>
@@ -23697,13 +24276,13 @@
         <v>9</v>
       </c>
       <c r="H356" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="I356" t="s">
         <v>1153</v>
       </c>
       <c r="J356" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="L356">
         <v>50</v>
@@ -23711,7 +24290,7 @@
     </row>
     <row r="358" spans="1:12" ht="30">
       <c r="A358" s="40" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B358" s="60" t="s">
         <v>66</v>
@@ -23720,7 +24299,7 @@
         <v>9</v>
       </c>
       <c r="H358" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I358" t="s">
         <v>900</v>
@@ -23734,7 +24313,7 @@
     </row>
     <row r="360" spans="1:12" ht="30">
       <c r="A360" s="40" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B360" s="60" t="s">
         <v>66</v>
@@ -23743,13 +24322,13 @@
         <v>9</v>
       </c>
       <c r="H360" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I360" t="s">
         <v>1153</v>
       </c>
       <c r="J360" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="L360">
         <v>50</v>
@@ -23757,7 +24336,7 @@
     </row>
     <row r="362" spans="1:12" ht="30">
       <c r="A362" s="40" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B362" s="60" t="s">
         <v>66</v>
@@ -23766,13 +24345,13 @@
         <v>9</v>
       </c>
       <c r="H362" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I362" t="s">
         <v>1156</v>
       </c>
       <c r="J362" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="L362">
         <v>50</v>
@@ -23780,7 +24359,7 @@
     </row>
     <row r="364" spans="1:12" ht="30">
       <c r="A364" s="40" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B364" s="60" t="s">
         <v>66</v>
@@ -23789,13 +24368,13 @@
         <v>9</v>
       </c>
       <c r="H364" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I364" t="s">
         <v>1158</v>
       </c>
       <c r="J364" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="L364">
         <v>50</v>
@@ -23803,7 +24382,7 @@
     </row>
     <row r="366" spans="1:12" ht="30">
       <c r="A366" s="40" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B366" s="60" t="s">
         <v>66</v>
@@ -23812,13 +24391,13 @@
         <v>9</v>
       </c>
       <c r="H366" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I366" t="s">
         <v>1159</v>
       </c>
       <c r="J366" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="L366">
         <v>50</v>
@@ -23826,7 +24405,7 @@
     </row>
     <row r="368" spans="1:12" ht="30">
       <c r="A368" s="40" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B368" s="60" t="s">
         <v>66</v>
@@ -23835,7 +24414,7 @@
         <v>9</v>
       </c>
       <c r="H368" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="I368" t="s">
         <v>900</v>
@@ -23849,7 +24428,7 @@
     </row>
     <row r="370" spans="1:12" ht="30">
       <c r="A370" s="40" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B370" s="60" t="s">
         <v>66</v>
@@ -23858,7 +24437,7 @@
         <v>9</v>
       </c>
       <c r="H370" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="I370" t="s">
         <v>1153</v>
@@ -23872,7 +24451,7 @@
     </row>
     <row r="372" spans="1:12" ht="30">
       <c r="A372" s="40" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B372" s="60" t="s">
         <v>66</v>
@@ -23881,10 +24460,10 @@
         <v>9</v>
       </c>
       <c r="H372" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="I372" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="J372">
         <v>5</v>
@@ -23895,7 +24474,7 @@
     </row>
     <row r="374" spans="1:12" ht="30">
       <c r="A374" s="40" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B374" s="60" t="s">
         <v>66</v>
@@ -23904,10 +24483,10 @@
         <v>9</v>
       </c>
       <c r="H374" t="s">
+        <v>1225</v>
+      </c>
+      <c r="I374" t="s">
         <v>1227</v>
-      </c>
-      <c r="I374" t="s">
-        <v>1229</v>
       </c>
       <c r="J374">
         <v>0</v>
@@ -23918,7 +24497,7 @@
     </row>
     <row r="376" spans="1:12" ht="30">
       <c r="A376" s="40" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B376" s="60" t="s">
         <v>66</v>
@@ -23927,10 +24506,10 @@
         <v>9</v>
       </c>
       <c r="H376" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="I376" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="J376">
         <v>0</v>
@@ -23944,7 +24523,7 @@
     </row>
     <row r="378" spans="1:12" ht="30">
       <c r="A378" s="40" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B378" s="60" t="s">
         <v>66</v>
@@ -23953,10 +24532,10 @@
         <v>9</v>
       </c>
       <c r="H378" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="I378" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="J378">
         <v>5</v>
@@ -23970,7 +24549,7 @@
     </row>
     <row r="380" spans="1:12" ht="30">
       <c r="A380" s="40" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B380" s="60" t="s">
         <v>66</v>
@@ -23979,13 +24558,13 @@
         <v>9</v>
       </c>
       <c r="H380" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="I380" t="s">
         <v>900</v>
       </c>
       <c r="J380" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="L380">
         <v>50</v>
@@ -23993,7 +24572,7 @@
     </row>
     <row r="382" spans="1:12" ht="30">
       <c r="A382" s="40" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B382" s="60" t="s">
         <v>66</v>
@@ -24002,13 +24581,13 @@
         <v>9</v>
       </c>
       <c r="H382" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="I382" t="s">
         <v>1153</v>
       </c>
       <c r="J382" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="L382">
         <v>50</v>
@@ -24016,7 +24595,7 @@
     </row>
     <row r="384" spans="1:12" ht="30">
       <c r="A384" s="40" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B384" s="60" t="s">
         <v>66</v>
@@ -24031,7 +24610,7 @@
         <v>900</v>
       </c>
       <c r="J384" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="L384">
         <v>50</v>
@@ -24039,7 +24618,7 @@
     </row>
     <row r="386" spans="1:18" ht="30">
       <c r="A386" s="40" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B386" s="60" t="s">
         <v>66</v>
@@ -24054,7 +24633,7 @@
         <v>1153</v>
       </c>
       <c r="J386" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="L386">
         <v>50</v>
@@ -24062,7 +24641,7 @@
     </row>
     <row r="388" spans="1:18" ht="30">
       <c r="A388" s="40" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="B388" s="60" t="s">
         <v>66</v>
@@ -24077,7 +24656,7 @@
         <v>1156</v>
       </c>
       <c r="J388" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="L388">
         <v>50</v>
@@ -24085,7 +24664,7 @@
     </row>
     <row r="390" spans="1:18" ht="30">
       <c r="A390" s="40" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B390" s="60" t="s">
         <v>66</v>
@@ -24100,7 +24679,7 @@
         <v>1158</v>
       </c>
       <c r="J390" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="L390">
         <v>50</v>
@@ -24108,7 +24687,7 @@
     </row>
     <row r="392" spans="1:18" ht="30">
       <c r="A392" s="40" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="B392" s="60" t="s">
         <v>66</v>
@@ -24123,7 +24702,7 @@
         <v>1159</v>
       </c>
       <c r="J392" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="L392">
         <v>50</v>
@@ -24131,7 +24710,7 @@
     </row>
     <row r="394" spans="1:18">
       <c r="A394" s="65" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B394" s="60" t="s">
         <v>66</v>
@@ -24157,7 +24736,7 @@
     </row>
     <row r="396" spans="1:18">
       <c r="A396" s="65" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="B396" s="60" t="s">
         <v>66</v>
@@ -24183,7 +24762,7 @@
     </row>
     <row r="398" spans="1:18">
       <c r="A398" s="65" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B398" s="60" t="s">
         <v>66</v>
@@ -24209,7 +24788,7 @@
     </row>
     <row r="400" spans="1:18">
       <c r="A400" s="65" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B400" s="60" t="s">
         <v>66</v>
@@ -24244,7 +24823,7 @@
     </row>
     <row r="402" spans="1:18" ht="30">
       <c r="A402" s="65" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B402" s="60" t="s">
         <v>66</v>
@@ -24279,7 +24858,7 @@
     </row>
     <row r="404" spans="1:18" ht="30">
       <c r="A404" s="65" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B404" s="60" t="s">
         <v>66</v>
@@ -24305,7 +24884,7 @@
     </row>
     <row r="406" spans="1:18" ht="30">
       <c r="A406" s="65" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B406" s="60" t="s">
         <v>66</v>
@@ -24331,7 +24910,7 @@
     </row>
     <row r="408" spans="1:18" ht="30">
       <c r="A408" s="65" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B408" s="60" t="s">
         <v>66</v>
@@ -24357,7 +24936,7 @@
     </row>
     <row r="410" spans="1:18" ht="30">
       <c r="A410" s="65" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B410" s="60" t="s">
         <v>66</v>
@@ -24392,7 +24971,7 @@
     </row>
     <row r="412" spans="1:18" ht="30">
       <c r="A412" s="65" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="B412" s="60" t="s">
         <v>66</v>
@@ -24427,7 +25006,7 @@
     </row>
     <row r="414" spans="1:18" ht="30">
       <c r="A414" s="40" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B414" s="60" t="s">
         <v>66</v>
@@ -24436,13 +25015,13 @@
         <v>9</v>
       </c>
       <c r="H414" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="I414" t="s">
         <v>900</v>
       </c>
       <c r="J414" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="L414">
         <v>50</v>
@@ -24450,7 +25029,7 @@
     </row>
     <row r="416" spans="1:18" ht="30">
       <c r="A416" s="40" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B416" s="60" t="s">
         <v>66</v>
@@ -24459,13 +25038,13 @@
         <v>9</v>
       </c>
       <c r="H416" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="I416" t="s">
         <v>1153</v>
       </c>
       <c r="J416" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="L416">
         <v>50</v>
@@ -24473,7 +25052,7 @@
     </row>
     <row r="418" spans="1:12" ht="30">
       <c r="A418" s="40" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B418" s="60" t="s">
         <v>66</v>
@@ -24482,13 +25061,13 @@
         <v>9</v>
       </c>
       <c r="H418" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I418" t="s">
         <v>900</v>
       </c>
       <c r="J418" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="L418">
         <v>50</v>
@@ -24496,22 +25075,22 @@
     </row>
     <row r="420" spans="1:12" ht="30">
       <c r="A420" s="40" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B420" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D420" t="s">
+        <v>9</v>
+      </c>
+      <c r="H420" t="s">
         <v>1299</v>
-      </c>
-      <c r="B420" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="D420" t="s">
-        <v>9</v>
-      </c>
-      <c r="H420" t="s">
-        <v>1301</v>
       </c>
       <c r="I420" t="s">
         <v>1153</v>
       </c>
       <c r="J420" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="L420">
         <v>50</v>
@@ -24519,7 +25098,7 @@
     </row>
     <row r="422" spans="1:12" ht="30">
       <c r="A422" s="40" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B422" s="60" t="s">
         <v>66</v>
@@ -24542,7 +25121,7 @@
     </row>
     <row r="424" spans="1:12" ht="30">
       <c r="A424" s="40" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B424" s="60" t="s">
         <v>66</v>
@@ -24565,7 +25144,7 @@
     </row>
     <row r="426" spans="1:12" ht="30">
       <c r="A426" s="40" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B426" s="60" t="s">
         <v>66</v>
@@ -24580,7 +25159,7 @@
         <v>1156</v>
       </c>
       <c r="J426" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="L426">
         <v>50</v>
@@ -24588,7 +25167,7 @@
     </row>
     <row r="428" spans="1:12" ht="30">
       <c r="A428" s="40" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B428" s="60" t="s">
         <v>66</v>
@@ -24611,7 +25190,7 @@
     </row>
     <row r="430" spans="1:12" ht="30">
       <c r="A430" s="40" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B430" s="60" t="s">
         <v>66</v>
@@ -24634,7 +25213,7 @@
     </row>
     <row r="432" spans="1:12" ht="30">
       <c r="A432" s="40" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B432" s="60" t="s">
         <v>66</v>
@@ -24643,13 +25222,13 @@
         <v>9</v>
       </c>
       <c r="H432" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I432" t="s">
         <v>900</v>
       </c>
       <c r="J432" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="L432">
         <v>50</v>
@@ -24657,7 +25236,7 @@
     </row>
     <row r="434" spans="1:15" ht="30">
       <c r="A434" s="40" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B434" s="60" t="s">
         <v>66</v>
@@ -24666,13 +25245,13 @@
         <v>9</v>
       </c>
       <c r="H434" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I434" t="s">
         <v>1153</v>
       </c>
       <c r="J434" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="L434">
         <v>50</v>
@@ -24680,7 +25259,7 @@
     </row>
     <row r="436" spans="1:15" ht="30">
       <c r="A436" s="40" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B436" s="60" t="s">
         <v>66</v>
@@ -24689,7 +25268,7 @@
         <v>9</v>
       </c>
       <c r="H436" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I436" t="s">
         <v>1156</v>
@@ -24703,16 +25282,16 @@
     </row>
     <row r="438" spans="1:15" ht="30">
       <c r="A438" s="40" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B438" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D438" t="s">
+        <v>9</v>
+      </c>
+      <c r="H438" t="s">
         <v>1312</v>
-      </c>
-      <c r="B438" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="D438" t="s">
-        <v>9</v>
-      </c>
-      <c r="H438" t="s">
-        <v>1314</v>
       </c>
       <c r="I438" t="s">
         <v>1158</v>
@@ -24726,7 +25305,7 @@
     </row>
     <row r="440" spans="1:15" ht="30">
       <c r="A440" s="40" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B440" s="60" t="s">
         <v>66</v>
@@ -24735,7 +25314,7 @@
         <v>9</v>
       </c>
       <c r="H440" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="I440" t="s">
         <v>1159</v>
@@ -24749,7 +25328,7 @@
     </row>
     <row r="442" spans="1:15" ht="30">
       <c r="A442" s="40" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B442" s="60" t="s">
         <v>66</v>
@@ -24764,7 +25343,7 @@
         <v>900</v>
       </c>
       <c r="J442" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="L442">
         <v>50</v>
@@ -24772,7 +25351,7 @@
     </row>
     <row r="444" spans="1:15" ht="30">
       <c r="A444" s="40" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B444" s="60" t="s">
         <v>66</v>
@@ -24787,7 +25366,7 @@
         <v>1153</v>
       </c>
       <c r="J444" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="L444">
         <v>50</v>
@@ -24795,7 +25374,7 @@
     </row>
     <row r="446" spans="1:15">
       <c r="A446" s="44" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B446" s="60" t="s">
         <v>66</v>
@@ -24821,7 +25400,7 @@
     </row>
     <row r="448" spans="1:15">
       <c r="A448" s="44" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B448" s="60" t="s">
         <v>66</v>
@@ -24847,7 +25426,7 @@
     </row>
     <row r="450" spans="1:18">
       <c r="A450" s="44" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B450" s="60" t="s">
         <v>66</v>
@@ -24873,7 +25452,7 @@
     </row>
     <row r="452" spans="1:18">
       <c r="A452" s="44" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B452" s="60" t="s">
         <v>66</v>
@@ -24908,7 +25487,7 @@
     </row>
     <row r="454" spans="1:18" ht="30">
       <c r="A454" s="65" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B454" s="60" t="s">
         <v>66</v>
@@ -24943,7 +25522,7 @@
     </row>
     <row r="456" spans="1:18" ht="30">
       <c r="A456" s="40" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="B456" s="60" t="s">
         <v>66</v>
@@ -24952,13 +25531,13 @@
         <v>9</v>
       </c>
       <c r="H456" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="I456" t="s">
         <v>900</v>
       </c>
       <c r="J456" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="L456">
         <v>50</v>
@@ -24966,7 +25545,7 @@
     </row>
     <row r="458" spans="1:18" ht="30">
       <c r="A458" s="40" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B458" s="60" t="s">
         <v>66</v>
@@ -24975,13 +25554,13 @@
         <v>9</v>
       </c>
       <c r="H458" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="I458" t="s">
         <v>1153</v>
       </c>
       <c r="J458" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="L458">
         <v>50</v>
@@ -24989,22 +25568,22 @@
     </row>
     <row r="460" spans="1:18" ht="30">
       <c r="A460" s="40" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B460" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D460" t="s">
+        <v>9</v>
+      </c>
+      <c r="H460" t="s">
         <v>1326</v>
-      </c>
-      <c r="B460" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="D460" t="s">
-        <v>9</v>
-      </c>
-      <c r="H460" t="s">
-        <v>1328</v>
       </c>
       <c r="I460" t="s">
         <v>900</v>
       </c>
       <c r="J460" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="L460">
         <v>50</v>
@@ -25012,7 +25591,7 @@
     </row>
     <row r="462" spans="1:18" ht="30">
       <c r="A462" s="40" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B462" s="60" t="s">
         <v>66</v>
@@ -25021,13 +25600,13 @@
         <v>9</v>
       </c>
       <c r="H462" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="I462" t="s">
         <v>1153</v>
       </c>
       <c r="J462" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="L462">
         <v>50</v>
@@ -25035,7 +25614,7 @@
     </row>
     <row r="464" spans="1:18" ht="30">
       <c r="A464" s="40" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B464" s="60" t="s">
         <v>66</v>
@@ -25044,7 +25623,7 @@
         <v>9</v>
       </c>
       <c r="H464" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="I464" t="s">
         <v>900</v>
@@ -25058,7 +25637,7 @@
     </row>
     <row r="466" spans="1:12" ht="30">
       <c r="A466" s="40" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B466" s="60" t="s">
         <v>66</v>
@@ -25067,7 +25646,7 @@
         <v>9</v>
       </c>
       <c r="H466" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="I466" t="s">
         <v>1153</v>
@@ -25081,7 +25660,7 @@
     </row>
     <row r="468" spans="1:12" ht="30">
       <c r="A468" s="40" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B468" s="60" t="s">
         <v>66</v>
@@ -25090,10 +25669,10 @@
         <v>9</v>
       </c>
       <c r="H468" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="I468" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="J468">
         <v>5</v>
@@ -25104,7 +25683,7 @@
     </row>
     <row r="470" spans="1:12" ht="30">
       <c r="A470" s="40" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B470" s="60" t="s">
         <v>66</v>
@@ -25113,10 +25692,10 @@
         <v>9</v>
       </c>
       <c r="H470" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="I470" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="J470">
         <v>0</v>
@@ -25127,19 +25706,19 @@
     </row>
     <row r="472" spans="1:12" ht="30">
       <c r="A472" s="40" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B472" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D472" t="s">
+        <v>9</v>
+      </c>
+      <c r="H472" t="s">
         <v>1457</v>
       </c>
-      <c r="B472" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="D472" t="s">
-        <v>9</v>
-      </c>
-      <c r="H472" t="s">
-        <v>1459</v>
-      </c>
       <c r="I472" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="J472">
         <v>0</v>
@@ -25153,7 +25732,7 @@
     </row>
     <row r="474" spans="1:12" ht="30">
       <c r="A474" s="40" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B474" s="60" t="s">
         <v>66</v>
@@ -25162,10 +25741,10 @@
         <v>9</v>
       </c>
       <c r="H474" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="I474" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="J474">
         <v>5</v>
@@ -25179,7 +25758,7 @@
     </row>
     <row r="476" spans="1:12" ht="30">
       <c r="A476" s="40" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B476" s="60" t="s">
         <v>66</v>
@@ -25188,7 +25767,7 @@
         <v>9</v>
       </c>
       <c r="H476" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="I476" t="s">
         <v>900</v>
@@ -25202,7 +25781,7 @@
     </row>
     <row r="478" spans="1:12" ht="30">
       <c r="A478" s="40" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B478" s="60" t="s">
         <v>66</v>
@@ -25211,7 +25790,7 @@
         <v>9</v>
       </c>
       <c r="H478" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="I478" t="s">
         <v>1153</v>
@@ -25225,7 +25804,7 @@
     </row>
     <row r="480" spans="1:12" ht="30">
       <c r="A480" s="40" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B480" s="60" t="s">
         <v>66</v>
@@ -25234,13 +25813,13 @@
         <v>9</v>
       </c>
       <c r="H480" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="I480" t="s">
         <v>1156</v>
       </c>
       <c r="J480" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="L480">
         <v>50</v>
@@ -25248,22 +25827,22 @@
     </row>
     <row r="482" spans="1:12" ht="30">
       <c r="A482" s="40" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B482" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D482" t="s">
+        <v>9</v>
+      </c>
+      <c r="H482" t="s">
         <v>1463</v>
-      </c>
-      <c r="B482" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="D482" t="s">
-        <v>9</v>
-      </c>
-      <c r="H482" t="s">
-        <v>1465</v>
       </c>
       <c r="I482" t="s">
         <v>1158</v>
       </c>
       <c r="J482" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="L482">
         <v>50</v>
@@ -25271,7 +25850,7 @@
     </row>
     <row r="484" spans="1:12" ht="30">
       <c r="A484" s="40" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B484" s="60" t="s">
         <v>66</v>
@@ -25280,7 +25859,7 @@
         <v>9</v>
       </c>
       <c r="H484" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="I484" t="s">
         <v>1159</v>
@@ -25294,22 +25873,22 @@
     </row>
     <row r="486" spans="1:12" ht="30">
       <c r="A486" s="40" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B486" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D486" t="s">
+        <v>9</v>
+      </c>
+      <c r="H486" t="s">
         <v>1468</v>
-      </c>
-      <c r="B486" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="D486" t="s">
-        <v>9</v>
-      </c>
-      <c r="H486" t="s">
-        <v>1470</v>
       </c>
       <c r="I486" t="s">
         <v>900</v>
       </c>
       <c r="J486" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="L486">
         <v>50</v>
@@ -25317,7 +25896,7 @@
     </row>
     <row r="488" spans="1:12" ht="30">
       <c r="A488" s="40" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B488" s="60" t="s">
         <v>66</v>
@@ -25326,13 +25905,13 @@
         <v>9</v>
       </c>
       <c r="H488" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="I488" t="s">
         <v>1153</v>
       </c>
       <c r="J488" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="L488">
         <v>50</v>
@@ -25340,7 +25919,7 @@
     </row>
     <row r="490" spans="1:12" ht="30">
       <c r="A490" s="40" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B490" s="60" t="s">
         <v>66</v>
@@ -25349,13 +25928,13 @@
         <v>9</v>
       </c>
       <c r="H490" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="I490" t="s">
         <v>900</v>
       </c>
       <c r="J490" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="L490">
         <v>50</v>
@@ -25363,7 +25942,7 @@
     </row>
     <row r="492" spans="1:12" ht="30">
       <c r="A492" s="40" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B492" s="60" t="s">
         <v>66</v>
@@ -25372,13 +25951,13 @@
         <v>9</v>
       </c>
       <c r="H492" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="I492" t="s">
         <v>1153</v>
       </c>
       <c r="J492" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="L492">
         <v>50</v>
@@ -25386,7 +25965,7 @@
     </row>
     <row r="494" spans="1:12" ht="30">
       <c r="A494" s="40" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B494" s="60" t="s">
         <v>66</v>
@@ -25395,13 +25974,13 @@
         <v>9</v>
       </c>
       <c r="H494" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I494" t="s">
         <v>900</v>
       </c>
       <c r="J494" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="L494">
         <v>50</v>
@@ -25409,7 +25988,7 @@
     </row>
     <row r="496" spans="1:12" ht="30">
       <c r="A496" s="40" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B496" s="60" t="s">
         <v>66</v>
@@ -25418,13 +25997,13 @@
         <v>9</v>
       </c>
       <c r="H496" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I496" t="s">
         <v>1153</v>
       </c>
       <c r="J496" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="L496">
         <v>50</v>
@@ -25432,7 +26011,7 @@
     </row>
     <row r="498" spans="1:12" ht="30">
       <c r="A498" s="40" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B498" s="60" t="s">
         <v>66</v>
@@ -25441,13 +26020,13 @@
         <v>9</v>
       </c>
       <c r="H498" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I498" t="s">
         <v>1156</v>
       </c>
       <c r="J498" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="L498">
         <v>50</v>
@@ -25455,7 +26034,7 @@
     </row>
     <row r="500" spans="1:12" ht="30">
       <c r="A500" s="40" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B500" s="60" t="s">
         <v>66</v>
@@ -25464,13 +26043,13 @@
         <v>9</v>
       </c>
       <c r="H500" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I500" t="s">
         <v>1158</v>
       </c>
       <c r="J500" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="L500">
         <v>50</v>
@@ -25478,7 +26057,7 @@
     </row>
     <row r="502" spans="1:12" ht="30">
       <c r="A502" s="40" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B502" s="60" t="s">
         <v>66</v>
@@ -25487,13 +26066,13 @@
         <v>9</v>
       </c>
       <c r="H502" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I502" t="s">
         <v>1159</v>
       </c>
       <c r="J502" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="L502">
         <v>50</v>
@@ -25501,7 +26080,7 @@
     </row>
     <row r="504" spans="1:12" ht="30">
       <c r="A504" s="40" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B504" s="60" t="s">
         <v>66</v>
@@ -25510,13 +26089,13 @@
         <v>9</v>
       </c>
       <c r="H504" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="I504" t="s">
         <v>900</v>
       </c>
       <c r="J504" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="L504">
         <v>50</v>
@@ -25524,7 +26103,7 @@
     </row>
     <row r="506" spans="1:12" ht="30">
       <c r="A506" s="40" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B506" s="60" t="s">
         <v>66</v>
@@ -25533,13 +26112,13 @@
         <v>9</v>
       </c>
       <c r="H506" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="I506" t="s">
         <v>1153</v>
       </c>
       <c r="J506" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="L506">
         <v>50</v>
@@ -25547,7 +26126,7 @@
     </row>
     <row r="508" spans="1:12" ht="30">
       <c r="A508" s="40" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="B508" s="60" t="s">
         <v>66</v>
@@ -25556,13 +26135,13 @@
         <v>9</v>
       </c>
       <c r="H508" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="I508" t="s">
         <v>1156</v>
       </c>
       <c r="J508" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="L508">
         <v>50</v>
@@ -25570,7 +26149,7 @@
     </row>
     <row r="510" spans="1:12" ht="30">
       <c r="A510" s="40" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="B510" s="60" t="s">
         <v>66</v>
@@ -25579,13 +26158,13 @@
         <v>9</v>
       </c>
       <c r="H510" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="I510" t="s">
         <v>1158</v>
       </c>
       <c r="J510" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="L510">
         <v>50</v>
@@ -25593,7 +26172,7 @@
     </row>
     <row r="512" spans="1:12" ht="30">
       <c r="A512" s="40" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B512" s="60" t="s">
         <v>66</v>
@@ -25602,13 +26181,13 @@
         <v>9</v>
       </c>
       <c r="H512" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="I512" t="s">
         <v>1159</v>
       </c>
       <c r="J512" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="L512">
         <v>50</v>
@@ -25616,7 +26195,7 @@
     </row>
     <row r="514" spans="1:12" ht="30">
       <c r="A514" s="40" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="B514" s="60" t="s">
         <v>66</v>
@@ -25625,7 +26204,7 @@
         <v>9</v>
       </c>
       <c r="H514" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I514" t="s">
         <v>900</v>
@@ -25639,7 +26218,7 @@
     </row>
     <row r="516" spans="1:12" ht="30">
       <c r="A516" s="40" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="B516" s="60" t="s">
         <v>66</v>
@@ -25648,13 +26227,13 @@
         <v>9</v>
       </c>
       <c r="H516" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I516" t="s">
         <v>1153</v>
       </c>
       <c r="J516" s="2" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="L516">
         <v>50</v>
@@ -25662,7 +26241,7 @@
     </row>
     <row r="518" spans="1:12" ht="30">
       <c r="A518" s="40" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="B518" s="60" t="s">
         <v>66</v>
@@ -25671,13 +26250,13 @@
         <v>9</v>
       </c>
       <c r="H518" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I518" t="s">
         <v>1156</v>
       </c>
       <c r="J518" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="L518">
         <v>50</v>
@@ -25685,7 +26264,7 @@
     </row>
     <row r="520" spans="1:12" ht="30">
       <c r="A520" s="40" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B520" s="60" t="s">
         <v>66</v>
@@ -25694,13 +26273,13 @@
         <v>9</v>
       </c>
       <c r="H520" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I520" t="s">
         <v>1158</v>
       </c>
       <c r="J520" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="L520">
         <v>50</v>
@@ -25708,7 +26287,7 @@
     </row>
     <row r="522" spans="1:12" ht="30">
       <c r="A522" s="40" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="B522" s="60" t="s">
         <v>66</v>
@@ -25717,13 +26296,13 @@
         <v>9</v>
       </c>
       <c r="H522" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I522" t="s">
         <v>1159</v>
       </c>
       <c r="J522" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="L522">
         <v>50</v>
@@ -25731,7 +26310,7 @@
     </row>
     <row r="524" spans="1:12" ht="30">
       <c r="A524" s="40" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B524" s="60" t="s">
         <v>66</v>
@@ -25740,13 +26319,13 @@
         <v>9</v>
       </c>
       <c r="H524" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="I524" t="s">
         <v>900</v>
       </c>
       <c r="J524" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="L524">
         <v>50</v>
@@ -25754,7 +26333,7 @@
     </row>
     <row r="526" spans="1:12" ht="30">
       <c r="A526" s="40" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="B526" s="60" t="s">
         <v>66</v>
@@ -25763,13 +26342,13 @@
         <v>9</v>
       </c>
       <c r="H526" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="I526" t="s">
         <v>1153</v>
       </c>
       <c r="J526" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="L526">
         <v>50</v>
@@ -25777,7 +26356,7 @@
     </row>
     <row r="528" spans="1:12" ht="30">
       <c r="A528" s="40" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="B528" s="60" t="s">
         <v>66</v>
@@ -25786,13 +26365,13 @@
         <v>9</v>
       </c>
       <c r="H528" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="I528" t="s">
         <v>1156</v>
       </c>
       <c r="J528" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="L528">
         <v>50</v>
@@ -25800,22 +26379,22 @@
     </row>
     <row r="530" spans="1:18" ht="30">
       <c r="A530" s="40" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B530" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D530" t="s">
+        <v>9</v>
+      </c>
+      <c r="H530" t="s">
         <v>1505</v>
-      </c>
-      <c r="B530" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="D530" t="s">
-        <v>9</v>
-      </c>
-      <c r="H530" t="s">
-        <v>1507</v>
       </c>
       <c r="I530" t="s">
         <v>1158</v>
       </c>
       <c r="J530" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="L530">
         <v>50</v>
@@ -25823,7 +26402,7 @@
     </row>
     <row r="532" spans="1:18" ht="30">
       <c r="A532" s="40" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="B532" s="60" t="s">
         <v>66</v>
@@ -25832,7 +26411,7 @@
         <v>9</v>
       </c>
       <c r="H532" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="I532" t="s">
         <v>1159</v>
@@ -25846,7 +26425,7 @@
     </row>
     <row r="534" spans="1:18">
       <c r="A534" s="65" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="B534" s="60" t="s">
         <v>66</v>
@@ -25872,7 +26451,7 @@
     </row>
     <row r="536" spans="1:18">
       <c r="A536" s="65" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="B536" s="60" t="s">
         <v>66</v>
@@ -25898,7 +26477,7 @@
     </row>
     <row r="538" spans="1:18">
       <c r="A538" s="65" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="B538" s="60" t="s">
         <v>66</v>
@@ -25924,7 +26503,7 @@
     </row>
     <row r="540" spans="1:18">
       <c r="A540" s="65" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="B540" s="60" t="s">
         <v>66</v>
@@ -25959,7 +26538,7 @@
     </row>
     <row r="542" spans="1:18" ht="30">
       <c r="A542" s="65" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="B542" s="60" t="s">
         <v>66</v>
@@ -25994,7 +26573,7 @@
     </row>
     <row r="544" spans="1:18" ht="30">
       <c r="A544" s="40" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="B544" s="60" t="s">
         <v>66</v>
@@ -26017,7 +26596,7 @@
     </row>
     <row r="546" spans="1:12" ht="30">
       <c r="A546" s="40" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="B546" s="60" t="s">
         <v>66</v>
@@ -26040,7 +26619,7 @@
     </row>
     <row r="548" spans="1:12" ht="30">
       <c r="A548" s="40" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B548" s="60" t="s">
         <v>66</v>
@@ -26055,7 +26634,7 @@
         <v>1156</v>
       </c>
       <c r="J548" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="L548">
         <v>50</v>
@@ -26063,7 +26642,7 @@
     </row>
     <row r="550" spans="1:12" ht="30">
       <c r="A550" s="40" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B550" s="60" t="s">
         <v>66</v>
@@ -26078,7 +26657,7 @@
         <v>1158</v>
       </c>
       <c r="J550" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="L550">
         <v>50</v>
@@ -26086,7 +26665,7 @@
     </row>
     <row r="552" spans="1:12" ht="30">
       <c r="A552" s="40" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="B552" s="60" t="s">
         <v>66</v>
@@ -26101,7 +26680,7 @@
         <v>1159</v>
       </c>
       <c r="J552" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="L552">
         <v>50</v>
@@ -26109,13 +26688,10 @@
     </row>
     <row r="554" spans="1:12" ht="30">
       <c r="A554" s="40" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="B554" s="60" t="s">
         <v>66</v>
-      </c>
-      <c r="C554" t="s">
-        <v>638</v>
       </c>
       <c r="D554" t="s">
         <v>9</v>
@@ -26135,13 +26711,10 @@
     </row>
     <row r="556" spans="1:12" ht="30">
       <c r="A556" s="40" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="B556" s="60" t="s">
         <v>66</v>
-      </c>
-      <c r="C556" t="s">
-        <v>638</v>
       </c>
       <c r="D556" t="s">
         <v>9</v>
@@ -26161,13 +26734,10 @@
     </row>
     <row r="558" spans="1:12" ht="30">
       <c r="A558" s="40" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="B558" s="60" t="s">
         <v>66</v>
-      </c>
-      <c r="C558" t="s">
-        <v>638</v>
       </c>
       <c r="D558" t="s">
         <v>9</v>
@@ -26176,7 +26746,7 @@
         <v>391</v>
       </c>
       <c r="I558" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="J558">
         <v>2025</v>
@@ -26187,7 +26757,7 @@
     </row>
     <row r="560" spans="1:12" ht="30">
       <c r="A560" s="40" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="B560" s="60" t="s">
         <v>66</v>
@@ -26199,7 +26769,7 @@
         <v>391</v>
       </c>
       <c r="I560" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="J560">
         <v>2020</v>
@@ -26210,7 +26780,7 @@
     </row>
     <row r="562" spans="1:12" ht="30">
       <c r="A562" s="40" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="B562" s="60" t="s">
         <v>66</v>
@@ -26222,7 +26792,7 @@
         <v>391</v>
       </c>
       <c r="I562" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="J562">
         <v>2020</v>
@@ -26236,13 +26806,10 @@
     </row>
     <row r="564" spans="1:12" ht="30">
       <c r="A564" s="40" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="B564" s="60" t="s">
         <v>66</v>
-      </c>
-      <c r="C564" t="s">
-        <v>638</v>
       </c>
       <c r="D564" t="s">
         <v>9</v>
@@ -26251,7 +26818,7 @@
         <v>391</v>
       </c>
       <c r="I564" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="J564">
         <v>2020</v>
@@ -26265,19 +26832,16 @@
     </row>
     <row r="566" spans="1:12" ht="30">
       <c r="A566" s="40" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B566" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D566" t="s">
+        <v>9</v>
+      </c>
+      <c r="H566" t="s">
         <v>1530</v>
-      </c>
-      <c r="B566" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C566" t="s">
-        <v>638</v>
-      </c>
-      <c r="D566" t="s">
-        <v>9</v>
-      </c>
-      <c r="H566" t="s">
-        <v>1532</v>
       </c>
       <c r="I566" t="s">
         <v>900</v>
@@ -26291,25 +26855,22 @@
     </row>
     <row r="568" spans="1:12" ht="30">
       <c r="A568" s="40" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="B568" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C568" t="s">
-        <v>638</v>
-      </c>
       <c r="D568" t="s">
         <v>9</v>
       </c>
       <c r="H568" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="I568" t="s">
         <v>1153</v>
       </c>
       <c r="J568" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="L568">
         <v>50</v>
